--- a/docs/xls/forexop_hedge_grid 1.24.xlsx
+++ b/docs/xls/forexop_hedge_grid 1.24.xlsx
@@ -1,7 +1,7 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr filterPrivacy="1"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="16380" windowHeight="8190" tabRatio="228"/>
@@ -16,14 +16,14 @@
     <definedName name="aRng">'Grid trading simulator'!$O$33</definedName>
     <definedName name="t">Data!$B$8:$B$40</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="124519"/>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
-    <author>Author</author>
+    <author>作者</author>
   </authors>
   <commentList>
     <comment ref="G3" authorId="0">
@@ -531,12 +531,12 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="165" formatCode="0.0"/>
+    <numFmt numFmtId="176" formatCode="0.0000"/>
+    <numFmt numFmtId="177" formatCode="0.0"/>
   </numFmts>
-  <fonts count="19">
+  <fonts count="20">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -651,6 +651,12 @@
       <name val="Tahoma"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="9"/>
+      <name val="宋体"/>
+      <family val="3"/>
+      <charset val="134"/>
+    </font>
   </fonts>
   <fills count="12">
     <fill>
@@ -754,20 +760,20 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1"/>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1"/>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="176" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="177" fontId="9" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
@@ -776,24 +782,24 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
+    <xf numFmtId="176" fontId="10" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="176" fontId="11" fillId="7" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection hidden="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="6" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
+    <xf numFmtId="176" fontId="8" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyProtection="1">
       <protection locked="0"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyProtection="1">
@@ -807,7 +813,7 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
@@ -815,7 +821,7 @@
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="165" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="177" fontId="0" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
@@ -847,7 +853,7 @@
       <alignment horizontal="right"/>
       <protection hidden="1"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
       <protection hidden="1"/>
     </xf>
@@ -864,14 +870,14 @@
   </cellXfs>
   <cellStyles count="9">
     <cellStyle name="Excel Built-in Normal" xfId="8"/>
-    <cellStyle name="Hyperlink" xfId="7" builtinId="8"/>
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
     <cellStyle name="Untitled1" xfId="1"/>
     <cellStyle name="Untitled2" xfId="2"/>
     <cellStyle name="Untitled3" xfId="3"/>
     <cellStyle name="Untitled4" xfId="4"/>
     <cellStyle name="Untitled5" xfId="5"/>
     <cellStyle name="Untitled6" xfId="6"/>
+    <cellStyle name="常规" xfId="0" builtinId="0"/>
+    <cellStyle name="超链接" xfId="7" builtinId="8"/>
   </cellStyles>
   <dxfs count="2">
     <dxf>
@@ -970,17 +976,7 @@
 
 <file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <c:date1904 val="0"/>
-  <c:lang val="en-GB"/>
-  <c:roundedCorners val="0"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
-      <c14:style val="102"/>
-    </mc:Choice>
-    <mc:Fallback>
-      <c:style val="2"/>
-    </mc:Fallback>
-  </mc:AlternateContent>
+  <c:lang val="zh-CN"/>
   <c:chart>
     <c:title>
       <c:tx>
@@ -989,7 +985,7 @@
           <a:lstStyle/>
           <a:p>
             <a:pPr>
-              <a:defRPr/>
+              <a:defRPr lang="en-GB"/>
             </a:pPr>
             <a:r>
               <a:rPr lang="en-GB"/>
@@ -1004,9 +1000,7 @@
         </c:rich>
       </c:tx>
       <c:layout/>
-      <c:overlay val="0"/>
     </c:title>
-    <c:autoTitleDeleted val="0"/>
     <c:plotArea>
       <c:layout/>
       <c:stockChart>
@@ -1028,327 +1022,326 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="106"/>
                 <c:pt idx="0">
-                  <c:v>1.3482209325715413</c:v>
+                  <c:v>1.3484119386968509</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3482841707431221</c:v>
+                  <c:v>1.3489217025210374</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3476145404226039</c:v>
+                  <c:v>1.348887258538553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3479601254274716</c:v>
+                  <c:v>1.3500877106011235</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3483731878147793</c:v>
+                  <c:v>1.3491595787020085</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3488121525563859</c:v>
+                  <c:v>1.3498593686516802</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3472828509796415</c:v>
+                  <c:v>1.3481692173054025</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3485853742867304</c:v>
+                  <c:v>1.346903207961371</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3475164684117398</c:v>
+                  <c:v>1.3461907056283817</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3475998340643927</c:v>
+                  <c:v>1.3459530713713521</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3466880062689552</c:v>
+                  <c:v>1.3456850415239792</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.347257680362844</c:v>
+                  <c:v>1.3466132425823305</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3468592082296631</c:v>
+                  <c:v>1.3470844900148351</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3463142001388733</c:v>
+                  <c:v>1.3469747416225939</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3465615884486783</c:v>
+                  <c:v>1.3460755855116933</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3473865337042472</c:v>
+                  <c:v>1.3462135222466718</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3486387420020602</c:v>
+                  <c:v>1.3453911581125033</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3493657087990549</c:v>
+                  <c:v>1.3445637197033706</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3494090689697382</c:v>
+                  <c:v>1.3431690553357529</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3481848574582513</c:v>
+                  <c:v>1.3421791744721021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.3471956581099704</c:v>
+                  <c:v>1.3421174342264068</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3471161843607107</c:v>
+                  <c:v>1.339844982746289</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3471608259769075</c:v>
+                  <c:v>1.3385741541971554</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.3484856108622838</c:v>
+                  <c:v>1.3388399849921078</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3490723326896135</c:v>
+                  <c:v>1.3370863283322962</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3501564302517768</c:v>
+                  <c:v>1.3377347981982572</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.350953976967058</c:v>
+                  <c:v>1.33793729124948</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.3505825468242232</c:v>
+                  <c:v>1.3386198968471441</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.3514121618355386</c:v>
+                  <c:v>1.3402406431692953</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.3512228029848423</c:v>
+                  <c:v>1.3400382445205521</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3520011113215813</c:v>
+                  <c:v>1.3387656628529434</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3514601555563561</c:v>
+                  <c:v>1.3375883605225101</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.3525097814843703</c:v>
+                  <c:v>1.337832338563671</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.3539071660851112</c:v>
+                  <c:v>1.3376561563333027</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.353973714969344</c:v>
+                  <c:v>1.3354535559950267</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.3542045078845248</c:v>
+                  <c:v>1.3343094928065087</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.3538324020727435</c:v>
+                  <c:v>1.3346824406369864</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.3535099890964337</c:v>
+                  <c:v>1.3344204060648701</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.3546350545846089</c:v>
+                  <c:v>1.3353944659127883</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.3547251342723217</c:v>
+                  <c:v>1.3353079034727955</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.3556743858796334</c:v>
+                  <c:v>1.3353896401329139</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.3562460917549142</c:v>
+                  <c:v>1.3359415503294318</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.3579926906087021</c:v>
+                  <c:v>1.33579026305472</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.3579039468857208</c:v>
+                  <c:v>1.333885817513581</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.3574805477784704</c:v>
+                  <c:v>1.3338365757674129</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.3583798012390949</c:v>
+                  <c:v>1.3331537102986804</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.3595451799305445</c:v>
+                  <c:v>1.3304908435912364</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.3606044971395155</c:v>
+                  <c:v>1.3311077798289528</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.3623002605994898</c:v>
+                  <c:v>1.3310918186885907</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.3633325160471468</c:v>
+                  <c:v>1.3312902352260163</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.3622618236779704</c:v>
+                  <c:v>1.3322317700842381</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.3623319049672657</c:v>
+                  <c:v>1.3334304686825367</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.3618341624648247</c:v>
+                  <c:v>1.333269271916881</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.3627390207859693</c:v>
+                  <c:v>1.3331269836850297</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.3648488591773869</c:v>
+                  <c:v>1.3342148341675248</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.3657510816988252</c:v>
+                  <c:v>1.3344608339774298</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.3651392221108498</c:v>
+                  <c:v>1.3338490335326993</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.3672003535330122</c:v>
+                  <c:v>1.3336236613497849</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.3663742264588328</c:v>
+                  <c:v>1.3330329370036551</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.3675950753694301</c:v>
+                  <c:v>1.3331847587107428</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.368378193024075</c:v>
+                  <c:v>1.3339076039009465</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.3707592338014398</c:v>
+                  <c:v>1.3349438603063652</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.3716533825256803</c:v>
+                  <c:v>1.3348505419642354</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.3708166622886657</c:v>
+                  <c:v>1.3347061028922929</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.3724027555240026</c:v>
+                  <c:v>1.3346264093180586</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.3729402076534631</c:v>
+                  <c:v>1.3356563000210058</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.3737322555279154</c:v>
+                  <c:v>1.3347025165496751</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.3727824680566856</c:v>
+                  <c:v>1.3349416064111479</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.374127685368246</c:v>
+                  <c:v>1.3342393635812053</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.3736935147403135</c:v>
+                  <c:v>1.334772038751886</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.3744677200457602</c:v>
+                  <c:v>1.3336885048407792</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.3750627282936785</c:v>
+                  <c:v>1.3345460204979616</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.3746641065376297</c:v>
+                  <c:v>1.3354622853441713</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.374738725045084</c:v>
+                  <c:v>1.3361766913864408</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.3732547872128789</c:v>
+                  <c:v>1.3337758328981721</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.3746697159458388</c:v>
+                  <c:v>1.332216369244136</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.3748826155092708</c:v>
+                  <c:v>1.3324863509870148</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.3738614604296793</c:v>
+                  <c:v>1.3314786021358491</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.3737262531173204</c:v>
+                  <c:v>1.3305775836165854</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.3718766740051647</c:v>
+                  <c:v>1.3311801744396115</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.3691109007813596</c:v>
+                  <c:v>1.3302516324649181</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.3687787458588938</c:v>
+                  <c:v>1.3307463934645762</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.3709475356342673</c:v>
+                  <c:v>1.3288247264531938</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.3730534599465691</c:v>
+                  <c:v>1.3293320579245322</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.3732635123393218</c:v>
+                  <c:v>1.3297856057396928</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.3732804808677865</c:v>
+                  <c:v>1.3295672877956006</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.37520228985091</c:v>
+                  <c:v>1.331816658421936</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.3748336148774385</c:v>
+                  <c:v>1.3315482189952088</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.3758192127183069</c:v>
+                  <c:v>1.3312160033327052</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.375944677931275</c:v>
+                  <c:v>1.3294852263890806</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.378280982366995</c:v>
+                  <c:v>1.3282381374381371</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.3777616813549611</c:v>
+                  <c:v>1.3283100951889981</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.377109688986176</c:v>
+                  <c:v>1.3273610487190237</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.377953842119013</c:v>
+                  <c:v>1.3281656834850959</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.3800386103518436</c:v>
+                  <c:v>1.3280755130863104</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.38008748381576</c:v>
+                  <c:v>1.3278849568354665</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.3794853226990758</c:v>
+                  <c:v>1.3289689044881987</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.3790690036174871</c:v>
+                  <c:v>1.328002556969238</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.3787485440798943</c:v>
+                  <c:v>1.3281921981121294</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.379394337601529</c:v>
+                  <c:v>1.3268120768007228</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.379088933562538</c:v>
+                  <c:v>1.3270851540613122</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.3785818125410059</c:v>
+                  <c:v>1.3277479901267564</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.3782707799288352</c:v>
+                  <c:v>1.3286284711688821</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.3779626061403807</c:v>
+                  <c:v>1.327885867503801</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.3791818589281968</c:v>
+                  <c:v>1.32753414215659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="1"/>
@@ -1368,327 +1361,326 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="106"/>
                 <c:pt idx="0">
-                  <c:v>1.3482209325715413</c:v>
+                  <c:v>1.3484119386968509</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3482841707431221</c:v>
+                  <c:v>1.3489217025210374</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3476145404226039</c:v>
+                  <c:v>1.348887258538553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3479601254274716</c:v>
+                  <c:v>1.3500877106011235</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3483731878147793</c:v>
+                  <c:v>1.3491595787020085</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3488121525563859</c:v>
+                  <c:v>1.3498593686516802</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3472828509796415</c:v>
+                  <c:v>1.3481692173054025</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3485853742867304</c:v>
+                  <c:v>1.346903207961371</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3475164684117398</c:v>
+                  <c:v>1.3461907056283817</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3475998340643927</c:v>
+                  <c:v>1.3459530713713521</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3466880062689552</c:v>
+                  <c:v>1.3456850415239792</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.347257680362844</c:v>
+                  <c:v>1.3466132425823305</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3468592082296631</c:v>
+                  <c:v>1.3470844900148351</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3463142001388733</c:v>
+                  <c:v>1.3469747416225939</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3465615884486783</c:v>
+                  <c:v>1.3460755855116933</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3473865337042472</c:v>
+                  <c:v>1.3462135222466718</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3486387420020602</c:v>
+                  <c:v>1.3453911581125033</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3493657087990549</c:v>
+                  <c:v>1.3445637197033706</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3494090689697382</c:v>
+                  <c:v>1.3431690553357529</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3481848574582513</c:v>
+                  <c:v>1.3421791744721021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.3471956581099704</c:v>
+                  <c:v>1.3421174342264068</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3471161843607107</c:v>
+                  <c:v>1.339844982746289</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3471608259769075</c:v>
+                  <c:v>1.3385741541971554</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.3484856108622838</c:v>
+                  <c:v>1.3388399849921078</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3490723326896135</c:v>
+                  <c:v>1.3370863283322962</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3501564302517768</c:v>
+                  <c:v>1.3377347981982572</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.350953976967058</c:v>
+                  <c:v>1.33793729124948</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.3505825468242232</c:v>
+                  <c:v>1.3386198968471441</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.3514121618355386</c:v>
+                  <c:v>1.3402406431692953</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.3512228029848423</c:v>
+                  <c:v>1.3400382445205521</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3520011113215813</c:v>
+                  <c:v>1.3387656628529434</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3514601555563561</c:v>
+                  <c:v>1.3375883605225101</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.3525097814843703</c:v>
+                  <c:v>1.337832338563671</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.3539071660851112</c:v>
+                  <c:v>1.3376561563333027</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.353973714969344</c:v>
+                  <c:v>1.3354535559950267</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.3542045078845248</c:v>
+                  <c:v>1.3343094928065087</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.3538324020727435</c:v>
+                  <c:v>1.3346824406369864</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.3535099890964337</c:v>
+                  <c:v>1.3344204060648701</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.3546350545846089</c:v>
+                  <c:v>1.3353944659127883</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.3547251342723217</c:v>
+                  <c:v>1.3353079034727955</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.3556743858796334</c:v>
+                  <c:v>1.3353896401329139</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.3562460917549142</c:v>
+                  <c:v>1.3359415503294318</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.3579926906087021</c:v>
+                  <c:v>1.33579026305472</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.3579039468857208</c:v>
+                  <c:v>1.333885817513581</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.3574805477784704</c:v>
+                  <c:v>1.3338365757674129</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.3583798012390949</c:v>
+                  <c:v>1.3331537102986804</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.3595451799305445</c:v>
+                  <c:v>1.3304908435912364</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.3606044971395155</c:v>
+                  <c:v>1.3311077798289528</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.3623002605994898</c:v>
+                  <c:v>1.3310918186885907</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.3633325160471468</c:v>
+                  <c:v>1.3312902352260163</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.3622618236779704</c:v>
+                  <c:v>1.3322317700842381</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.3623319049672657</c:v>
+                  <c:v>1.3334304686825367</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.3618341624648247</c:v>
+                  <c:v>1.333269271916881</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.3627390207859693</c:v>
+                  <c:v>1.3331269836850297</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.3648488591773869</c:v>
+                  <c:v>1.3342148341675248</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.3657510816988252</c:v>
+                  <c:v>1.3344608339774298</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.3651392221108498</c:v>
+                  <c:v>1.3338490335326993</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.3672003535330122</c:v>
+                  <c:v>1.3336236613497849</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.3663742264588328</c:v>
+                  <c:v>1.3330329370036551</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.3675950753694301</c:v>
+                  <c:v>1.3331847587107428</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.368378193024075</c:v>
+                  <c:v>1.3339076039009465</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.3707592338014398</c:v>
+                  <c:v>1.3349438603063652</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.3716533825256803</c:v>
+                  <c:v>1.3348505419642354</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.3708166622886657</c:v>
+                  <c:v>1.3347061028922929</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.3724027555240026</c:v>
+                  <c:v>1.3346264093180586</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.3729402076534631</c:v>
+                  <c:v>1.3356563000210058</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.3737322555279154</c:v>
+                  <c:v>1.3347025165496751</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.3727824680566856</c:v>
+                  <c:v>1.3349416064111479</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.374127685368246</c:v>
+                  <c:v>1.3342393635812053</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.3736935147403135</c:v>
+                  <c:v>1.334772038751886</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.3744677200457602</c:v>
+                  <c:v>1.3336885048407792</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.3750627282936785</c:v>
+                  <c:v>1.3345460204979616</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.3746641065376297</c:v>
+                  <c:v>1.3354622853441713</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.374738725045084</c:v>
+                  <c:v>1.3361766913864408</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.3732547872128789</c:v>
+                  <c:v>1.3337758328981721</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.3746697159458388</c:v>
+                  <c:v>1.332216369244136</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.3748826155092708</c:v>
+                  <c:v>1.3324863509870148</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.3738614604296793</c:v>
+                  <c:v>1.3314786021358491</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.3737262531173204</c:v>
+                  <c:v>1.3305775836165854</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.3718766740051647</c:v>
+                  <c:v>1.3311801744396115</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.3691109007813596</c:v>
+                  <c:v>1.3302516324649181</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.3687787458588938</c:v>
+                  <c:v>1.3307463934645762</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.3709475356342673</c:v>
+                  <c:v>1.3288247264531938</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.3730534599465691</c:v>
+                  <c:v>1.3293320579245322</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.3732635123393218</c:v>
+                  <c:v>1.3297856057396928</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.3732804808677865</c:v>
+                  <c:v>1.3295672877956006</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.37520228985091</c:v>
+                  <c:v>1.331816658421936</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.3748336148774385</c:v>
+                  <c:v>1.3315482189952088</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.3758192127183069</c:v>
+                  <c:v>1.3312160033327052</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.375944677931275</c:v>
+                  <c:v>1.3294852263890806</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.378280982366995</c:v>
+                  <c:v>1.3282381374381371</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.3777616813549611</c:v>
+                  <c:v>1.3283100951889981</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.377109688986176</c:v>
+                  <c:v>1.3273610487190237</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.377953842119013</c:v>
+                  <c:v>1.3281656834850959</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.3800386103518436</c:v>
+                  <c:v>1.3280755130863104</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.38008748381576</c:v>
+                  <c:v>1.3278849568354665</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.3794853226990758</c:v>
+                  <c:v>1.3289689044881987</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.3790690036174871</c:v>
+                  <c:v>1.328002556969238</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.3787485440798943</c:v>
+                  <c:v>1.3281921981121294</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.379394337601529</c:v>
+                  <c:v>1.3268120768007228</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.379088933562538</c:v>
+                  <c:v>1.3270851540613122</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.3785818125410059</c:v>
+                  <c:v>1.3277479901267564</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.3782707799288352</c:v>
+                  <c:v>1.3286284711688821</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.3779626061403807</c:v>
+                  <c:v>1.327885867503801</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.3791818589281968</c:v>
+                  <c:v>1.32753414215659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="2"/>
@@ -1708,327 +1700,326 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="106"/>
                 <c:pt idx="0">
-                  <c:v>1.3482209325715413</c:v>
+                  <c:v>1.3484119386968509</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3482841707431221</c:v>
+                  <c:v>1.3489217025210374</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3476145404226039</c:v>
+                  <c:v>1.348887258538553</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3479601254274716</c:v>
+                  <c:v>1.3500877106011235</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>1.3483731878147793</c:v>
+                  <c:v>1.3491595787020085</c:v>
                 </c:pt>
                 <c:pt idx="5">
                   <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3488121525563859</c:v>
+                  <c:v>1.3498593686516802</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3472828509796415</c:v>
+                  <c:v>1.3481692173054025</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3485853742867304</c:v>
+                  <c:v>1.346903207961371</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3475164684117398</c:v>
+                  <c:v>1.3461907056283817</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3475998340643927</c:v>
+                  <c:v>1.3459530713713521</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.3466880062689552</c:v>
+                  <c:v>1.3456850415239792</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.347257680362844</c:v>
+                  <c:v>1.3466132425823305</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3468592082296631</c:v>
+                  <c:v>1.3470844900148351</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3463142001388733</c:v>
+                  <c:v>1.3469747416225939</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3465615884486783</c:v>
+                  <c:v>1.3460755855116933</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3473865337042472</c:v>
+                  <c:v>1.3462135222466718</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3486387420020602</c:v>
+                  <c:v>1.3453911581125033</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3493657087990549</c:v>
+                  <c:v>1.3445637197033706</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3494090689697382</c:v>
+                  <c:v>1.3431690553357529</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3481848574582513</c:v>
+                  <c:v>1.3421791744721021</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.3471956581099704</c:v>
+                  <c:v>1.3421174342264068</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3471161843607107</c:v>
+                  <c:v>1.339844982746289</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3471608259769075</c:v>
+                  <c:v>1.3385741541971554</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.3484856108622838</c:v>
+                  <c:v>1.3388399849921078</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3490723326896135</c:v>
+                  <c:v>1.3370863283322962</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.3501564302517768</c:v>
+                  <c:v>1.3377347981982572</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.350953976967058</c:v>
+                  <c:v>1.33793729124948</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.3505825468242232</c:v>
+                  <c:v>1.3386198968471441</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.3514121618355386</c:v>
+                  <c:v>1.3402406431692953</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.3512228029848423</c:v>
+                  <c:v>1.3400382445205521</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3520011113215813</c:v>
+                  <c:v>1.3387656628529434</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3514601555563561</c:v>
+                  <c:v>1.3375883605225101</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.3525097814843703</c:v>
+                  <c:v>1.337832338563671</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.3539071660851112</c:v>
+                  <c:v>1.3376561563333027</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.353973714969344</c:v>
+                  <c:v>1.3354535559950267</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.3542045078845248</c:v>
+                  <c:v>1.3343094928065087</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.3538324020727435</c:v>
+                  <c:v>1.3346824406369864</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.3535099890964337</c:v>
+                  <c:v>1.3344204060648701</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.3546350545846089</c:v>
+                  <c:v>1.3353944659127883</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.3547251342723217</c:v>
+                  <c:v>1.3353079034727955</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.3556743858796334</c:v>
+                  <c:v>1.3353896401329139</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.3562460917549142</c:v>
+                  <c:v>1.3359415503294318</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.3579926906087021</c:v>
+                  <c:v>1.33579026305472</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.3579039468857208</c:v>
+                  <c:v>1.333885817513581</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.3574805477784704</c:v>
+                  <c:v>1.3338365757674129</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.3583798012390949</c:v>
+                  <c:v>1.3331537102986804</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.3595451799305445</c:v>
+                  <c:v>1.3304908435912364</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.3606044971395155</c:v>
+                  <c:v>1.3311077798289528</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.3623002605994898</c:v>
+                  <c:v>1.3310918186885907</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.3633325160471468</c:v>
+                  <c:v>1.3312902352260163</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.3622618236779704</c:v>
+                  <c:v>1.3322317700842381</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.3623319049672657</c:v>
+                  <c:v>1.3334304686825367</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.3618341624648247</c:v>
+                  <c:v>1.333269271916881</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.3627390207859693</c:v>
+                  <c:v>1.3331269836850297</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.3648488591773869</c:v>
+                  <c:v>1.3342148341675248</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.3657510816988252</c:v>
+                  <c:v>1.3344608339774298</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.3651392221108498</c:v>
+                  <c:v>1.3338490335326993</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.3672003535330122</c:v>
+                  <c:v>1.3336236613497849</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.3663742264588328</c:v>
+                  <c:v>1.3330329370036551</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.3675950753694301</c:v>
+                  <c:v>1.3331847587107428</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.368378193024075</c:v>
+                  <c:v>1.3339076039009465</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.3707592338014398</c:v>
+                  <c:v>1.3349438603063652</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.3716533825256803</c:v>
+                  <c:v>1.3348505419642354</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.3708166622886657</c:v>
+                  <c:v>1.3347061028922929</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.3724027555240026</c:v>
+                  <c:v>1.3346264093180586</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.3729402076534631</c:v>
+                  <c:v>1.3356563000210058</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.3737322555279154</c:v>
+                  <c:v>1.3347025165496751</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.3727824680566856</c:v>
+                  <c:v>1.3349416064111479</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.374127685368246</c:v>
+                  <c:v>1.3342393635812053</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.3736935147403135</c:v>
+                  <c:v>1.334772038751886</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.3744677200457602</c:v>
+                  <c:v>1.3336885048407792</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.3750627282936785</c:v>
+                  <c:v>1.3345460204979616</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.3746641065376297</c:v>
+                  <c:v>1.3354622853441713</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.374738725045084</c:v>
+                  <c:v>1.3361766913864408</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.3732547872128789</c:v>
+                  <c:v>1.3337758328981721</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.3746697159458388</c:v>
+                  <c:v>1.332216369244136</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.3748826155092708</c:v>
+                  <c:v>1.3324863509870148</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.3738614604296793</c:v>
+                  <c:v>1.3314786021358491</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.3737262531173204</c:v>
+                  <c:v>1.3305775836165854</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.3718766740051647</c:v>
+                  <c:v>1.3311801744396115</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.3691109007813596</c:v>
+                  <c:v>1.3302516324649181</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.3687787458588938</c:v>
+                  <c:v>1.3307463934645762</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.3709475356342673</c:v>
+                  <c:v>1.3288247264531938</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.3730534599465691</c:v>
+                  <c:v>1.3293320579245322</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.3732635123393218</c:v>
+                  <c:v>1.3297856057396928</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.3732804808677865</c:v>
+                  <c:v>1.3295672877956006</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.37520228985091</c:v>
+                  <c:v>1.331816658421936</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.3748336148774385</c:v>
+                  <c:v>1.3315482189952088</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.3758192127183069</c:v>
+                  <c:v>1.3312160033327052</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.375944677931275</c:v>
+                  <c:v>1.3294852263890806</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.378280982366995</c:v>
+                  <c:v>1.3282381374381371</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.3777616813549611</c:v>
+                  <c:v>1.3283100951889981</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.377109688986176</c:v>
+                  <c:v>1.3273610487190237</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.377953842119013</c:v>
+                  <c:v>1.3281656834850959</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.3800386103518436</c:v>
+                  <c:v>1.3280755130863104</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.38008748381576</c:v>
+                  <c:v>1.3278849568354665</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.3794853226990758</c:v>
+                  <c:v>1.3289689044881987</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.3790690036174871</c:v>
+                  <c:v>1.328002556969238</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.3787485440798943</c:v>
+                  <c:v>1.3281921981121294</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.379394337601529</c:v>
+                  <c:v>1.3268120768007228</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.379088933562538</c:v>
+                  <c:v>1.3270851540613122</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.3785818125410059</c:v>
+                  <c:v>1.3277479901267564</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.3782707799288352</c:v>
+                  <c:v>1.3286284711688821</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.3779626061403807</c:v>
+                  <c:v>1.327885867503801</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.3791818589281968</c:v>
+                  <c:v>1.32753414215659</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
         <c:ser>
           <c:idx val="3"/>
@@ -2048,336 +2039,328 @@
                 <c:formatCode>0.0000</c:formatCode>
                 <c:ptCount val="106"/>
                 <c:pt idx="0">
-                  <c:v>1.3482841707431221</c:v>
+                  <c:v>1.3489217025210374</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>1.3476145404226039</c:v>
+                  <c:v>1.348887258538553</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>1.3479601254274716</c:v>
+                  <c:v>1.3500877106011235</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>1.3483731878147793</c:v>
+                  <c:v>1.3491595787020085</c:v>
                 </c:pt>
                 <c:pt idx="4">
                   <c:v>1.35</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>1.3488121525563859</c:v>
+                  <c:v>1.3498593686516802</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.3472828509796415</c:v>
+                  <c:v>1.3481692173054025</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>1.3485853742867304</c:v>
+                  <c:v>1.346903207961371</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>1.3475164684117398</c:v>
+                  <c:v>1.3461907056283817</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>1.3475998340643927</c:v>
+                  <c:v>1.3459530713713521</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>1.3466880062689552</c:v>
+                  <c:v>1.3456850415239792</c:v>
                 </c:pt>
                 <c:pt idx="11">
-                  <c:v>1.347257680362844</c:v>
+                  <c:v>1.3466132425823305</c:v>
                 </c:pt>
                 <c:pt idx="12">
-                  <c:v>1.3468592082296631</c:v>
+                  <c:v>1.3470844900148351</c:v>
                 </c:pt>
                 <c:pt idx="13">
-                  <c:v>1.3463142001388733</c:v>
+                  <c:v>1.3469747416225939</c:v>
                 </c:pt>
                 <c:pt idx="14">
-                  <c:v>1.3465615884486783</c:v>
+                  <c:v>1.3460755855116933</c:v>
                 </c:pt>
                 <c:pt idx="15">
-                  <c:v>1.3473865337042472</c:v>
+                  <c:v>1.3462135222466718</c:v>
                 </c:pt>
                 <c:pt idx="16">
-                  <c:v>1.3486387420020602</c:v>
+                  <c:v>1.3453911581125033</c:v>
                 </c:pt>
                 <c:pt idx="17">
-                  <c:v>1.3493657087990549</c:v>
+                  <c:v>1.3445637197033706</c:v>
                 </c:pt>
                 <c:pt idx="18">
-                  <c:v>1.3494090689697382</c:v>
+                  <c:v>1.3431690553357529</c:v>
                 </c:pt>
                 <c:pt idx="19">
-                  <c:v>1.3481848574582513</c:v>
+                  <c:v>1.3421791744721021</c:v>
                 </c:pt>
                 <c:pt idx="20">
-                  <c:v>1.3471956581099704</c:v>
+                  <c:v>1.3421174342264068</c:v>
                 </c:pt>
                 <c:pt idx="21">
-                  <c:v>1.3471161843607107</c:v>
+                  <c:v>1.339844982746289</c:v>
                 </c:pt>
                 <c:pt idx="22">
-                  <c:v>1.3471608259769075</c:v>
+                  <c:v>1.3385741541971554</c:v>
                 </c:pt>
                 <c:pt idx="23">
-                  <c:v>1.3484856108622838</c:v>
+                  <c:v>1.3388399849921078</c:v>
                 </c:pt>
                 <c:pt idx="24">
-                  <c:v>1.3490723326896135</c:v>
+                  <c:v>1.3370863283322962</c:v>
                 </c:pt>
                 <c:pt idx="25">
-                  <c:v>1.3501564302517768</c:v>
+                  <c:v>1.3377347981982572</c:v>
                 </c:pt>
                 <c:pt idx="26">
-                  <c:v>1.350953976967058</c:v>
+                  <c:v>1.33793729124948</c:v>
                 </c:pt>
                 <c:pt idx="27">
-                  <c:v>1.3505825468242232</c:v>
+                  <c:v>1.3386198968471441</c:v>
                 </c:pt>
                 <c:pt idx="28">
-                  <c:v>1.3514121618355386</c:v>
+                  <c:v>1.3402406431692953</c:v>
                 </c:pt>
                 <c:pt idx="29">
-                  <c:v>1.3512228029848423</c:v>
+                  <c:v>1.3400382445205521</c:v>
                 </c:pt>
                 <c:pt idx="30">
-                  <c:v>1.3520011113215813</c:v>
+                  <c:v>1.3387656628529434</c:v>
                 </c:pt>
                 <c:pt idx="31">
-                  <c:v>1.3514601555563561</c:v>
+                  <c:v>1.3375883605225101</c:v>
                 </c:pt>
                 <c:pt idx="32">
-                  <c:v>1.3525097814843703</c:v>
+                  <c:v>1.337832338563671</c:v>
                 </c:pt>
                 <c:pt idx="33">
-                  <c:v>1.3539071660851112</c:v>
+                  <c:v>1.3376561563333027</c:v>
                 </c:pt>
                 <c:pt idx="34">
-                  <c:v>1.353973714969344</c:v>
+                  <c:v>1.3354535559950267</c:v>
                 </c:pt>
                 <c:pt idx="35">
-                  <c:v>1.3542045078845248</c:v>
+                  <c:v>1.3343094928065087</c:v>
                 </c:pt>
                 <c:pt idx="36">
-                  <c:v>1.3538324020727435</c:v>
+                  <c:v>1.3346824406369864</c:v>
                 </c:pt>
                 <c:pt idx="37">
-                  <c:v>1.3535099890964337</c:v>
+                  <c:v>1.3344204060648701</c:v>
                 </c:pt>
                 <c:pt idx="38">
-                  <c:v>1.3546350545846089</c:v>
+                  <c:v>1.3353944659127883</c:v>
                 </c:pt>
                 <c:pt idx="39">
-                  <c:v>1.3547251342723217</c:v>
+                  <c:v>1.3353079034727955</c:v>
                 </c:pt>
                 <c:pt idx="40">
-                  <c:v>1.3556743858796334</c:v>
+                  <c:v>1.3353896401329139</c:v>
                 </c:pt>
                 <c:pt idx="41">
-                  <c:v>1.3562460917549142</c:v>
+                  <c:v>1.3359415503294318</c:v>
                 </c:pt>
                 <c:pt idx="42">
-                  <c:v>1.3579926906087021</c:v>
+                  <c:v>1.33579026305472</c:v>
                 </c:pt>
                 <c:pt idx="43">
-                  <c:v>1.3579039468857208</c:v>
+                  <c:v>1.333885817513581</c:v>
                 </c:pt>
                 <c:pt idx="44">
-                  <c:v>1.3574805477784704</c:v>
+                  <c:v>1.3338365757674129</c:v>
                 </c:pt>
                 <c:pt idx="45">
-                  <c:v>1.3583798012390949</c:v>
+                  <c:v>1.3331537102986804</c:v>
                 </c:pt>
                 <c:pt idx="46">
-                  <c:v>1.3595451799305445</c:v>
+                  <c:v>1.3304908435912364</c:v>
                 </c:pt>
                 <c:pt idx="47">
-                  <c:v>1.3606044971395155</c:v>
+                  <c:v>1.3311077798289528</c:v>
                 </c:pt>
                 <c:pt idx="48">
-                  <c:v>1.3623002605994898</c:v>
+                  <c:v>1.3310918186885907</c:v>
                 </c:pt>
                 <c:pt idx="49">
-                  <c:v>1.3633325160471468</c:v>
+                  <c:v>1.3312902352260163</c:v>
                 </c:pt>
                 <c:pt idx="50">
-                  <c:v>1.3622618236779704</c:v>
+                  <c:v>1.3322317700842381</c:v>
                 </c:pt>
                 <c:pt idx="51">
-                  <c:v>1.3623319049672657</c:v>
+                  <c:v>1.3334304686825367</c:v>
                 </c:pt>
                 <c:pt idx="52">
-                  <c:v>1.3618341624648247</c:v>
+                  <c:v>1.333269271916881</c:v>
                 </c:pt>
                 <c:pt idx="53">
-                  <c:v>1.3627390207859693</c:v>
+                  <c:v>1.3331269836850297</c:v>
                 </c:pt>
                 <c:pt idx="54">
-                  <c:v>1.3648488591773869</c:v>
+                  <c:v>1.3342148341675248</c:v>
                 </c:pt>
                 <c:pt idx="55">
-                  <c:v>1.3657510816988252</c:v>
+                  <c:v>1.3344608339774298</c:v>
                 </c:pt>
                 <c:pt idx="56">
-                  <c:v>1.3651392221108498</c:v>
+                  <c:v>1.3338490335326993</c:v>
                 </c:pt>
                 <c:pt idx="57">
-                  <c:v>1.3672003535330122</c:v>
+                  <c:v>1.3336236613497849</c:v>
                 </c:pt>
                 <c:pt idx="58">
-                  <c:v>1.3663742264588328</c:v>
+                  <c:v>1.3330329370036551</c:v>
                 </c:pt>
                 <c:pt idx="59">
-                  <c:v>1.3675950753694301</c:v>
+                  <c:v>1.3331847587107428</c:v>
                 </c:pt>
                 <c:pt idx="60">
-                  <c:v>1.368378193024075</c:v>
+                  <c:v>1.3339076039009465</c:v>
                 </c:pt>
                 <c:pt idx="61">
-                  <c:v>1.3707592338014398</c:v>
+                  <c:v>1.3349438603063652</c:v>
                 </c:pt>
                 <c:pt idx="62">
-                  <c:v>1.3716533825256803</c:v>
+                  <c:v>1.3348505419642354</c:v>
                 </c:pt>
                 <c:pt idx="63">
-                  <c:v>1.3708166622886657</c:v>
+                  <c:v>1.3347061028922929</c:v>
                 </c:pt>
                 <c:pt idx="64">
-                  <c:v>1.3724027555240026</c:v>
+                  <c:v>1.3346264093180586</c:v>
                 </c:pt>
                 <c:pt idx="65">
-                  <c:v>1.3729402076534631</c:v>
+                  <c:v>1.3356563000210058</c:v>
                 </c:pt>
                 <c:pt idx="66">
-                  <c:v>1.3737322555279154</c:v>
+                  <c:v>1.3347025165496751</c:v>
                 </c:pt>
                 <c:pt idx="67">
-                  <c:v>1.3727824680566856</c:v>
+                  <c:v>1.3349416064111479</c:v>
                 </c:pt>
                 <c:pt idx="68">
-                  <c:v>1.374127685368246</c:v>
+                  <c:v>1.3342393635812053</c:v>
                 </c:pt>
                 <c:pt idx="69">
-                  <c:v>1.3736935147403135</c:v>
+                  <c:v>1.334772038751886</c:v>
                 </c:pt>
                 <c:pt idx="70">
-                  <c:v>1.3744677200457602</c:v>
+                  <c:v>1.3336885048407792</c:v>
                 </c:pt>
                 <c:pt idx="71">
-                  <c:v>1.3750627282936785</c:v>
+                  <c:v>1.3345460204979616</c:v>
                 </c:pt>
                 <c:pt idx="72">
-                  <c:v>1.3746641065376297</c:v>
+                  <c:v>1.3354622853441713</c:v>
                 </c:pt>
                 <c:pt idx="73">
-                  <c:v>1.374738725045084</c:v>
+                  <c:v>1.3361766913864408</c:v>
                 </c:pt>
                 <c:pt idx="74">
-                  <c:v>1.3732547872128789</c:v>
+                  <c:v>1.3337758328981721</c:v>
                 </c:pt>
                 <c:pt idx="75">
-                  <c:v>1.3746697159458388</c:v>
+                  <c:v>1.332216369244136</c:v>
                 </c:pt>
                 <c:pt idx="76">
-                  <c:v>1.3748826155092708</c:v>
+                  <c:v>1.3324863509870148</c:v>
                 </c:pt>
                 <c:pt idx="77">
-                  <c:v>1.3738614604296793</c:v>
+                  <c:v>1.3314786021358491</c:v>
                 </c:pt>
                 <c:pt idx="78">
-                  <c:v>1.3737262531173204</c:v>
+                  <c:v>1.3305775836165854</c:v>
                 </c:pt>
                 <c:pt idx="79">
-                  <c:v>1.3718766740051647</c:v>
+                  <c:v>1.3311801744396115</c:v>
                 </c:pt>
                 <c:pt idx="80">
-                  <c:v>1.3691109007813596</c:v>
+                  <c:v>1.3302516324649181</c:v>
                 </c:pt>
                 <c:pt idx="81">
-                  <c:v>1.3687787458588938</c:v>
+                  <c:v>1.3307463934645762</c:v>
                 </c:pt>
                 <c:pt idx="82">
-                  <c:v>1.3709475356342673</c:v>
+                  <c:v>1.3288247264531938</c:v>
                 </c:pt>
                 <c:pt idx="83">
-                  <c:v>1.3730534599465691</c:v>
+                  <c:v>1.3293320579245322</c:v>
                 </c:pt>
                 <c:pt idx="84">
-                  <c:v>1.3732635123393218</c:v>
+                  <c:v>1.3297856057396928</c:v>
                 </c:pt>
                 <c:pt idx="85">
-                  <c:v>1.3732804808677865</c:v>
+                  <c:v>1.3295672877956006</c:v>
                 </c:pt>
                 <c:pt idx="86">
-                  <c:v>1.37520228985091</c:v>
+                  <c:v>1.331816658421936</c:v>
                 </c:pt>
                 <c:pt idx="87">
-                  <c:v>1.3748336148774385</c:v>
+                  <c:v>1.3315482189952088</c:v>
                 </c:pt>
                 <c:pt idx="88">
-                  <c:v>1.3758192127183069</c:v>
+                  <c:v>1.3312160033327052</c:v>
                 </c:pt>
                 <c:pt idx="89">
-                  <c:v>1.375944677931275</c:v>
+                  <c:v>1.3294852263890806</c:v>
                 </c:pt>
                 <c:pt idx="90">
-                  <c:v>1.378280982366995</c:v>
+                  <c:v>1.3282381374381371</c:v>
                 </c:pt>
                 <c:pt idx="91">
-                  <c:v>1.3777616813549611</c:v>
+                  <c:v>1.3283100951889981</c:v>
                 </c:pt>
                 <c:pt idx="92">
-                  <c:v>1.377109688986176</c:v>
+                  <c:v>1.3273610487190237</c:v>
                 </c:pt>
                 <c:pt idx="93">
-                  <c:v>1.377953842119013</c:v>
+                  <c:v>1.3281656834850959</c:v>
                 </c:pt>
                 <c:pt idx="94">
-                  <c:v>1.3800386103518436</c:v>
+                  <c:v>1.3280755130863104</c:v>
                 </c:pt>
                 <c:pt idx="95">
-                  <c:v>1.38008748381576</c:v>
+                  <c:v>1.3278849568354665</c:v>
                 </c:pt>
                 <c:pt idx="96">
-                  <c:v>1.3794853226990758</c:v>
+                  <c:v>1.3289689044881987</c:v>
                 </c:pt>
                 <c:pt idx="97">
-                  <c:v>1.3790690036174871</c:v>
+                  <c:v>1.328002556969238</c:v>
                 </c:pt>
                 <c:pt idx="98">
-                  <c:v>1.3787485440798943</c:v>
+                  <c:v>1.3281921981121294</c:v>
                 </c:pt>
                 <c:pt idx="99">
-                  <c:v>1.379394337601529</c:v>
+                  <c:v>1.3268120768007228</c:v>
                 </c:pt>
                 <c:pt idx="100">
-                  <c:v>1.379088933562538</c:v>
+                  <c:v>1.3270851540613122</c:v>
                 </c:pt>
                 <c:pt idx="101">
-                  <c:v>1.3785818125410059</c:v>
+                  <c:v>1.3277479901267564</c:v>
                 </c:pt>
                 <c:pt idx="102">
-                  <c:v>1.3782707799288352</c:v>
+                  <c:v>1.3286284711688821</c:v>
                 </c:pt>
                 <c:pt idx="103">
-                  <c:v>1.3779626061403807</c:v>
+                  <c:v>1.327885867503801</c:v>
                 </c:pt>
                 <c:pt idx="104">
-                  <c:v>1.3791818589281968</c:v>
+                  <c:v>1.32753414215659</c:v>
                 </c:pt>
                 <c:pt idx="105">
-                  <c:v>1.3756370488070082</c:v>
+                  <c:v>1.3267266978144814</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
-          <c:smooth val="0"/>
         </c:ser>
-        <c:dLbls>
-          <c:showLegendKey val="0"/>
-          <c:showVal val="0"/>
-          <c:showCatName val="0"/>
-          <c:showSerName val="0"/>
-          <c:showPercent val="0"/>
-          <c:showBubbleSize val="0"/>
-        </c:dLbls>
+        <c:dLbls/>
         <c:hiLowLines/>
         <c:upDownBars>
           <c:gapWidth val="150"/>
@@ -2396,15 +2379,14 @@
             </c:spPr>
           </c:downBars>
         </c:upDownBars>
-        <c:axId val="197112320"/>
-        <c:axId val="179265536"/>
+        <c:axId val="91427200"/>
+        <c:axId val="91429120"/>
       </c:stockChart>
       <c:catAx>
-        <c:axId val="197112320"/>
+        <c:axId val="91427200"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="b"/>
         <c:title>
           <c:tx>
@@ -2413,7 +2395,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-GB"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-GB"/>
@@ -2423,25 +2405,30 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
-        <c:majorTickMark val="out"/>
-        <c:minorTickMark val="none"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="179265536"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-GB"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91429120"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
         <c:lblOffset val="100"/>
         <c:tickMarkSkip val="5"/>
-        <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="179265536"/>
+        <c:axId val="91429120"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
-        <c:delete val="0"/>
         <c:axPos val="l"/>
         <c:majorGridlines>
           <c:spPr>
@@ -2462,7 +2449,7 @@
               <a:lstStyle/>
               <a:p>
                 <a:pPr>
-                  <a:defRPr/>
+                  <a:defRPr lang="en-GB"/>
                 </a:pPr>
                 <a:r>
                   <a:rPr lang="en-US"/>
@@ -2472,24 +2459,32 @@
             </c:rich>
           </c:tx>
           <c:layout/>
-          <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0.0000" sourceLinked="1"/>
         <c:majorTickMark val="in"/>
         <c:minorTickMark val="in"/>
         <c:tickLblPos val="nextTo"/>
-        <c:crossAx val="197112320"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr lang="en-GB"/>
+            </a:pPr>
+            <a:endParaRPr lang="zh-CN"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="91427200"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:plotVisOnly val="1"/>
     <c:dispBlanksAs val="gap"/>
-    <c:showDLblsOverMax val="0"/>
   </c:chart>
   <c:printSettings>
     <c:headerFooter/>
-    <c:pageMargins b="0.75000000000000089" l="0.70000000000000062" r="0.70000000000000062" t="0.75000000000000089" header="0.30000000000000032" footer="0.30000000000000032"/>
+    <c:pageMargins b="0.750000000000001" l="0.70000000000000062" r="0.70000000000000062" t="0.750000000000001" header="0.30000000000000032" footer="0.30000000000000032"/>
     <c:pageSetup/>
   </c:printSettings>
 </c:chartSpace>
@@ -2917,11 +2912,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:P113"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T18" sqref="T18"/>
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.5703125" defaultRowHeight="12.75"/>
@@ -3055,7 +3050,7 @@
       </c>
       <c r="G4" s="24">
         <f ca="1">IF(E4&lt;$B$12,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H4" s="24">
         <f ca="1">G4*IF(ISNA(MATCH(E4,Data!$B$8:$B$108)),0,IF(F4&lt;MAX(OFFSET(Data!$B$8:$B$108,MATCH(E4,Data!$B$8:$B$108),0))-$B$4/10000,1,0))</f>
@@ -3063,7 +3058,7 @@
       </c>
       <c r="I4" s="25">
         <f ca="1">IF(H4&gt;0,F4-E4,-(E4-$B$13+$B$4/10000)*G4)*10000</f>
-        <v>274.81858928196635</v>
+        <v>0</v>
       </c>
       <c r="J4" s="22"/>
       <c r="K4" s="22" t="s">
@@ -3087,7 +3082,7 @@
       </c>
       <c r="P4" s="25">
         <f ca="1">IF(O4&gt;0,L4-M4,(L4-$B$13-$B$4/10000)*N4)*10000</f>
-        <v>-308.81858928196749</v>
+        <v>207.65857843409987</v>
       </c>
     </row>
     <row r="5" spans="1:16">
@@ -3111,7 +3106,7 @@
       </c>
       <c r="G5" s="24">
         <f ca="1">IF(E5&lt;$B$12,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H5" s="24">
         <f ca="1">G5*IF(ISNA(MATCH(E5,Data!$B$8:$B$108)),0,IF(F5&lt;MAX(OFFSET(Data!$B$8:$B$108,MATCH(E5,Data!$B$8:$B$108),0))-$B$4/10000,1,0))</f>
@@ -3119,7 +3114,7 @@
       </c>
       <c r="I5" s="25">
         <f ca="1">IF(H5&gt;0,F5-E5,-(E5-$B$13+$B$4/10000)*G5)*10000</f>
-        <v>259.81858928196579</v>
+        <v>0</v>
       </c>
       <c r="J5" s="26"/>
       <c r="K5" s="22" t="s">
@@ -3143,7 +3138,7 @@
       </c>
       <c r="P5" s="25">
         <f ca="1">IF(O5&gt;0,L5-M5,(L5-$B$13-$B$4/10000)*N5)*10000</f>
-        <v>-323.81858928196806</v>
+        <v>192.6585784340993</v>
       </c>
     </row>
     <row r="6" spans="1:16">
@@ -3167,7 +3162,7 @@
       </c>
       <c r="G6" s="24">
         <f ca="1">IF(E6&lt;$B$12,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H6" s="24">
         <f ca="1">G6*IF(ISNA(MATCH(E6,Data!$B$8:$B$108)),0,IF(F6&lt;MAX(OFFSET(Data!$B$8:$B$108,MATCH(E6,Data!$B$8:$B$108),0))-$B$4/10000,1,0))</f>
@@ -3175,7 +3170,7 @@
       </c>
       <c r="I6" s="25">
         <f ca="1">IF(H6&gt;0,F6-E6,-(E6-$B$13+$B$4/10000)*G6)*10000</f>
-        <v>244.81858928196522</v>
+        <v>0</v>
       </c>
       <c r="J6" s="26"/>
       <c r="K6" s="22" t="s">
@@ -3191,7 +3186,7 @@
       </c>
       <c r="N6" s="24">
         <f ca="1">IF(L6&gt;$B$11,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O6" s="24">
         <f ca="1">N6*IF(ISNA(MATCH(L6,Data!$B$8:$B$108,-1)),0,IF(M6&gt;MIN(OFFSET(Data!$B$8:$B$108,MATCH(L6,Data!$B$8:$B$108,-1),0))+$B$4/10000,1,0))</f>
@@ -3199,7 +3194,7 @@
       </c>
       <c r="P6" s="25">
         <f ca="1">IF(O6&gt;0,L6-M6,(L6-$B$13-$B$4/10000)*N6)*10000</f>
-        <v>0</v>
+        <v>177.65857843409873</v>
       </c>
     </row>
     <row r="7" spans="1:16">
@@ -3224,7 +3219,7 @@
       </c>
       <c r="G7" s="24">
         <f ca="1">IF(E7&lt;$B$12,1,0)</f>
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="H7" s="24">
         <f ca="1">G7*IF(ISNA(MATCH(E7,Data!$B$8:$B$108)),0,IF(F7&lt;MAX(OFFSET(Data!$B$8:$B$108,MATCH(E7,Data!$B$8:$B$108),0))-$B$4/10000,1,0))</f>
@@ -3232,7 +3227,7 @@
       </c>
       <c r="I7" s="25">
         <f ca="1">IF(H7&gt;0,F7-E7,-(E7-$B$13+$B$4/10000)*G7)*10000</f>
-        <v>229.81858928196465</v>
+        <v>0</v>
       </c>
       <c r="J7" s="26"/>
       <c r="K7" s="22" t="s">
@@ -3248,7 +3243,7 @@
       </c>
       <c r="N7" s="24">
         <f ca="1">IF(L7&gt;$B$11,1,0)</f>
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="O7" s="24">
         <f ca="1">N7*IF(ISNA(MATCH(L7,Data!$B$8:$B$108,-1)),0,IF(M7&gt;MIN(OFFSET(Data!$B$8:$B$108,MATCH(L7,Data!$B$8:$B$108,-1),0))+$B$4/10000,1,0))</f>
@@ -3256,7 +3251,7 @@
       </c>
       <c r="P7" s="25">
         <f ca="1">IF(O7&gt;0,L7-M7,(L7-$B$13-$B$4/10000)*N7)*10000</f>
-        <v>0</v>
+        <v>162.65857843409816</v>
       </c>
     </row>
     <row r="8" spans="1:16">
@@ -3276,7 +3271,7 @@
       <c r="H8" s="10"/>
       <c r="I8" s="11">
         <f ca="1">SUM(I4:I7)</f>
-        <v>1009.274357127862</v>
+        <v>0</v>
       </c>
       <c r="J8" s="10"/>
       <c r="K8" s="10"/>
@@ -3286,7 +3281,7 @@
       <c r="O8" s="10"/>
       <c r="P8" s="11">
         <f ca="1">SUM(P4:P7)</f>
-        <v>-632.63717856393555</v>
+        <v>740.63431373639605</v>
       </c>
     </row>
     <row r="9" spans="1:16">
@@ -3306,7 +3301,7 @@
       </c>
       <c r="I9" s="11">
         <f ca="1">I8+P8</f>
-        <v>376.63717856392645</v>
+        <v>740.63431373639605</v>
       </c>
       <c r="J9" s="10"/>
       <c r="K9" s="10"/>
@@ -3327,7 +3322,7 @@
       </c>
       <c r="B11" s="18">
         <f ca="1">MIN(Data!B8:B108)</f>
-        <v>1.3463142001388733</v>
+        <v>1.3268120768007228</v>
       </c>
       <c r="C11" s="7"/>
     </row>
@@ -3337,7 +3332,7 @@
       </c>
       <c r="B12" s="18">
         <f ca="1">MAX(Data!B8:B108)</f>
-        <v>1.38008748381576</v>
+        <v>1.35</v>
       </c>
       <c r="C12" s="7"/>
     </row>
@@ -3347,7 +3342,7 @@
       </c>
       <c r="B13" s="18">
         <f ca="1">Data!B108</f>
-        <v>1.3791818589281968</v>
+        <v>1.32753414215659</v>
       </c>
       <c r="C13" s="7"/>
     </row>
@@ -3509,7 +3504,8 @@
       <c r="E113" s="2"/>
     </row>
   </sheetData>
-  <sheetProtection password="9213" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <sheetProtection formatCells="0" formatColumns="0" formatRows="0"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <conditionalFormatting sqref="I9">
     <cfRule type="cellIs" dxfId="1" priority="3" stopIfTrue="1" operator="lessThan">
       <formula>0</formula>
@@ -3540,7 +3536,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:R109"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -3587,23 +3583,23 @@
       </c>
       <c r="B3" s="14">
         <f ca="1">B4+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3482209325715413</v>
+        <v>1.3484119386968509</v>
       </c>
       <c r="C3" s="14">
         <f ca="1">B3</f>
-        <v>1.3482209325715413</v>
+        <v>1.3484119386968509</v>
       </c>
       <c r="D3" s="14">
         <f ca="1">B3</f>
-        <v>1.3482209325715413</v>
+        <v>1.3484119386968509</v>
       </c>
       <c r="E3" s="14">
         <f ca="1">B3</f>
-        <v>1.3482209325715413</v>
+        <v>1.3484119386968509</v>
       </c>
       <c r="F3" s="14">
         <f ca="1">B4</f>
-        <v>1.3482841707431221</v>
+        <v>1.3489217025210374</v>
       </c>
     </row>
     <row r="4" spans="1:18">
@@ -3612,23 +3608,23 @@
       </c>
       <c r="B4" s="14">
         <f ca="1">B5+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3482841707431221</v>
+        <v>1.3489217025210374</v>
       </c>
       <c r="C4" s="14">
         <f t="shared" ref="C4:C67" ca="1" si="0">B4</f>
-        <v>1.3482841707431221</v>
+        <v>1.3489217025210374</v>
       </c>
       <c r="D4" s="14">
         <f t="shared" ref="D4:D67" ca="1" si="1">B4</f>
-        <v>1.3482841707431221</v>
+        <v>1.3489217025210374</v>
       </c>
       <c r="E4" s="14">
         <f t="shared" ref="E4:E67" ca="1" si="2">B4</f>
-        <v>1.3482841707431221</v>
+        <v>1.3489217025210374</v>
       </c>
       <c r="F4" s="14">
         <f t="shared" ref="F4:F67" ca="1" si="3">B5</f>
-        <v>1.3476145404226039</v>
+        <v>1.348887258538553</v>
       </c>
     </row>
     <row r="5" spans="1:18">
@@ -3637,23 +3633,23 @@
       </c>
       <c r="B5" s="14">
         <f ca="1">B6+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3476145404226039</v>
+        <v>1.348887258538553</v>
       </c>
       <c r="C5" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3476145404226039</v>
+        <v>1.348887258538553</v>
       </c>
       <c r="D5" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3476145404226039</v>
+        <v>1.348887258538553</v>
       </c>
       <c r="E5" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3476145404226039</v>
+        <v>1.348887258538553</v>
       </c>
       <c r="F5" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3479601254274716</v>
+        <v>1.3500877106011235</v>
       </c>
     </row>
     <row r="6" spans="1:18">
@@ -3662,23 +3658,23 @@
       </c>
       <c r="B6" s="14">
         <f ca="1">B7+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3479601254274716</v>
+        <v>1.3500877106011235</v>
       </c>
       <c r="C6" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3479601254274716</v>
+        <v>1.3500877106011235</v>
       </c>
       <c r="D6" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3479601254274716</v>
+        <v>1.3500877106011235</v>
       </c>
       <c r="E6" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3479601254274716</v>
+        <v>1.3500877106011235</v>
       </c>
       <c r="F6" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3483731878147793</v>
+        <v>1.3491595787020085</v>
       </c>
     </row>
     <row r="7" spans="1:18">
@@ -3687,19 +3683,19 @@
       </c>
       <c r="B7" s="14">
         <f ca="1">B8+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3483731878147793</v>
+        <v>1.3491595787020085</v>
       </c>
       <c r="C7" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3483731878147793</v>
+        <v>1.3491595787020085</v>
       </c>
       <c r="D7" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3483731878147793</v>
+        <v>1.3491595787020085</v>
       </c>
       <c r="E7" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3483731878147793</v>
+        <v>1.3491595787020085</v>
       </c>
       <c r="F7" s="14">
         <f t="shared" si="3"/>
@@ -3728,7 +3724,7 @@
       </c>
       <c r="F8" s="16">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3488121525563859</v>
+        <v>1.3498593686516802</v>
       </c>
     </row>
     <row r="9" spans="1:18">
@@ -3737,23 +3733,23 @@
       </c>
       <c r="B9" s="14">
         <f ca="1">B8+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3488121525563859</v>
+        <v>1.3498593686516802</v>
       </c>
       <c r="C9" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3488121525563859</v>
+        <v>1.3498593686516802</v>
       </c>
       <c r="D9" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3488121525563859</v>
+        <v>1.3498593686516802</v>
       </c>
       <c r="E9" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3488121525563859</v>
+        <v>1.3498593686516802</v>
       </c>
       <c r="F9" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3472828509796415</v>
+        <v>1.3481692173054025</v>
       </c>
     </row>
     <row r="10" spans="1:18">
@@ -3762,23 +3758,23 @@
       </c>
       <c r="B10" s="14">
         <f ca="1">B9+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3472828509796415</v>
+        <v>1.3481692173054025</v>
       </c>
       <c r="C10" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3472828509796415</v>
+        <v>1.3481692173054025</v>
       </c>
       <c r="D10" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3472828509796415</v>
+        <v>1.3481692173054025</v>
       </c>
       <c r="E10" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3472828509796415</v>
+        <v>1.3481692173054025</v>
       </c>
       <c r="F10" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3485853742867304</v>
+        <v>1.346903207961371</v>
       </c>
     </row>
     <row r="11" spans="1:18">
@@ -3787,23 +3783,23 @@
       </c>
       <c r="B11" s="14">
         <f ca="1">B10+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3485853742867304</v>
+        <v>1.346903207961371</v>
       </c>
       <c r="C11" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3485853742867304</v>
+        <v>1.346903207961371</v>
       </c>
       <c r="D11" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3485853742867304</v>
+        <v>1.346903207961371</v>
       </c>
       <c r="E11" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3485853742867304</v>
+        <v>1.346903207961371</v>
       </c>
       <c r="F11" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3475164684117398</v>
+        <v>1.3461907056283817</v>
       </c>
     </row>
     <row r="12" spans="1:18">
@@ -3812,23 +3808,23 @@
       </c>
       <c r="B12" s="14">
         <f ca="1">B11+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3475164684117398</v>
+        <v>1.3461907056283817</v>
       </c>
       <c r="C12" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3475164684117398</v>
+        <v>1.3461907056283817</v>
       </c>
       <c r="D12" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3475164684117398</v>
+        <v>1.3461907056283817</v>
       </c>
       <c r="E12" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3475164684117398</v>
+        <v>1.3461907056283817</v>
       </c>
       <c r="F12" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3475998340643927</v>
+        <v>1.3459530713713521</v>
       </c>
     </row>
     <row r="13" spans="1:18">
@@ -3837,23 +3833,23 @@
       </c>
       <c r="B13" s="14">
         <f ca="1">B12+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3475998340643927</v>
+        <v>1.3459530713713521</v>
       </c>
       <c r="C13" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3475998340643927</v>
+        <v>1.3459530713713521</v>
       </c>
       <c r="D13" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3475998340643927</v>
+        <v>1.3459530713713521</v>
       </c>
       <c r="E13" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3475998340643927</v>
+        <v>1.3459530713713521</v>
       </c>
       <c r="F13" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3466880062689552</v>
+        <v>1.3456850415239792</v>
       </c>
     </row>
     <row r="14" spans="1:18">
@@ -3862,23 +3858,23 @@
       </c>
       <c r="B14" s="14">
         <f ca="1">B13+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3466880062689552</v>
+        <v>1.3456850415239792</v>
       </c>
       <c r="C14" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3466880062689552</v>
+        <v>1.3456850415239792</v>
       </c>
       <c r="D14" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3466880062689552</v>
+        <v>1.3456850415239792</v>
       </c>
       <c r="E14" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3466880062689552</v>
+        <v>1.3456850415239792</v>
       </c>
       <c r="F14" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.347257680362844</v>
+        <v>1.3466132425823305</v>
       </c>
       <c r="O14" s="6"/>
       <c r="P14" s="6"/>
@@ -3891,23 +3887,23 @@
       </c>
       <c r="B15" s="14">
         <f ca="1">B14+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.347257680362844</v>
+        <v>1.3466132425823305</v>
       </c>
       <c r="C15" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.347257680362844</v>
+        <v>1.3466132425823305</v>
       </c>
       <c r="D15" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.347257680362844</v>
+        <v>1.3466132425823305</v>
       </c>
       <c r="E15" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.347257680362844</v>
+        <v>1.3466132425823305</v>
       </c>
       <c r="F15" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3468592082296631</v>
+        <v>1.3470844900148351</v>
       </c>
       <c r="O15" s="6"/>
       <c r="P15" s="6"/>
@@ -3920,23 +3916,23 @@
       </c>
       <c r="B16" s="14">
         <f ca="1">B15+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3468592082296631</v>
+        <v>1.3470844900148351</v>
       </c>
       <c r="C16" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3468592082296631</v>
+        <v>1.3470844900148351</v>
       </c>
       <c r="D16" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3468592082296631</v>
+        <v>1.3470844900148351</v>
       </c>
       <c r="E16" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3468592082296631</v>
+        <v>1.3470844900148351</v>
       </c>
       <c r="F16" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3463142001388733</v>
+        <v>1.3469747416225939</v>
       </c>
       <c r="O16" s="6"/>
       <c r="P16" s="6"/>
@@ -3949,23 +3945,23 @@
       </c>
       <c r="B17" s="14">
         <f ca="1">B16+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3463142001388733</v>
+        <v>1.3469747416225939</v>
       </c>
       <c r="C17" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3463142001388733</v>
+        <v>1.3469747416225939</v>
       </c>
       <c r="D17" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3463142001388733</v>
+        <v>1.3469747416225939</v>
       </c>
       <c r="E17" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3463142001388733</v>
+        <v>1.3469747416225939</v>
       </c>
       <c r="F17" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3465615884486783</v>
+        <v>1.3460755855116933</v>
       </c>
       <c r="O17" s="6"/>
       <c r="P17" s="6"/>
@@ -3978,23 +3974,23 @@
       </c>
       <c r="B18" s="14">
         <f ca="1">B17+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3465615884486783</v>
+        <v>1.3460755855116933</v>
       </c>
       <c r="C18" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3465615884486783</v>
+        <v>1.3460755855116933</v>
       </c>
       <c r="D18" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3465615884486783</v>
+        <v>1.3460755855116933</v>
       </c>
       <c r="E18" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3465615884486783</v>
+        <v>1.3460755855116933</v>
       </c>
       <c r="F18" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3473865337042472</v>
+        <v>1.3462135222466718</v>
       </c>
       <c r="O18" s="6"/>
       <c r="P18" s="6"/>
@@ -4007,23 +4003,23 @@
       </c>
       <c r="B19" s="14">
         <f ca="1">B18+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3473865337042472</v>
+        <v>1.3462135222466718</v>
       </c>
       <c r="C19" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3473865337042472</v>
+        <v>1.3462135222466718</v>
       </c>
       <c r="D19" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3473865337042472</v>
+        <v>1.3462135222466718</v>
       </c>
       <c r="E19" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3473865337042472</v>
+        <v>1.3462135222466718</v>
       </c>
       <c r="F19" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3486387420020602</v>
+        <v>1.3453911581125033</v>
       </c>
       <c r="O19" s="6"/>
       <c r="P19" s="6"/>
@@ -4036,23 +4032,23 @@
       </c>
       <c r="B20" s="14">
         <f ca="1">B19+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3486387420020602</v>
+        <v>1.3453911581125033</v>
       </c>
       <c r="C20" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3486387420020602</v>
+        <v>1.3453911581125033</v>
       </c>
       <c r="D20" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3486387420020602</v>
+        <v>1.3453911581125033</v>
       </c>
       <c r="E20" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3486387420020602</v>
+        <v>1.3453911581125033</v>
       </c>
       <c r="F20" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3493657087990549</v>
+        <v>1.3445637197033706</v>
       </c>
       <c r="O20" s="6"/>
       <c r="P20" s="6"/>
@@ -4065,23 +4061,23 @@
       </c>
       <c r="B21" s="14">
         <f ca="1">B20+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3493657087990549</v>
+        <v>1.3445637197033706</v>
       </c>
       <c r="C21" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3493657087990549</v>
+        <v>1.3445637197033706</v>
       </c>
       <c r="D21" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3493657087990549</v>
+        <v>1.3445637197033706</v>
       </c>
       <c r="E21" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3493657087990549</v>
+        <v>1.3445637197033706</v>
       </c>
       <c r="F21" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3494090689697382</v>
+        <v>1.3431690553357529</v>
       </c>
       <c r="O21" s="6"/>
       <c r="P21" s="6"/>
@@ -4094,23 +4090,23 @@
       </c>
       <c r="B22" s="14">
         <f ca="1">B21+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3494090689697382</v>
+        <v>1.3431690553357529</v>
       </c>
       <c r="C22" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3494090689697382</v>
+        <v>1.3431690553357529</v>
       </c>
       <c r="D22" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3494090689697382</v>
+        <v>1.3431690553357529</v>
       </c>
       <c r="E22" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3494090689697382</v>
+        <v>1.3431690553357529</v>
       </c>
       <c r="F22" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3481848574582513</v>
+        <v>1.3421791744721021</v>
       </c>
       <c r="O22" s="6"/>
       <c r="P22" s="6"/>
@@ -4123,23 +4119,23 @@
       </c>
       <c r="B23" s="14">
         <f ca="1">B22+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3481848574582513</v>
+        <v>1.3421791744721021</v>
       </c>
       <c r="C23" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3481848574582513</v>
+        <v>1.3421791744721021</v>
       </c>
       <c r="D23" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3481848574582513</v>
+        <v>1.3421791744721021</v>
       </c>
       <c r="E23" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3481848574582513</v>
+        <v>1.3421791744721021</v>
       </c>
       <c r="F23" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3471956581099704</v>
+        <v>1.3421174342264068</v>
       </c>
       <c r="O23" s="6"/>
       <c r="P23" s="6"/>
@@ -4152,23 +4148,23 @@
       </c>
       <c r="B24" s="14">
         <f ca="1">B23+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3471956581099704</v>
+        <v>1.3421174342264068</v>
       </c>
       <c r="C24" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3471956581099704</v>
+        <v>1.3421174342264068</v>
       </c>
       <c r="D24" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3471956581099704</v>
+        <v>1.3421174342264068</v>
       </c>
       <c r="E24" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3471956581099704</v>
+        <v>1.3421174342264068</v>
       </c>
       <c r="F24" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3471161843607107</v>
+        <v>1.339844982746289</v>
       </c>
       <c r="O24" s="6"/>
       <c r="P24" s="6"/>
@@ -4181,23 +4177,23 @@
       </c>
       <c r="B25" s="14">
         <f ca="1">B24+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3471161843607107</v>
+        <v>1.339844982746289</v>
       </c>
       <c r="C25" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3471161843607107</v>
+        <v>1.339844982746289</v>
       </c>
       <c r="D25" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3471161843607107</v>
+        <v>1.339844982746289</v>
       </c>
       <c r="E25" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3471161843607107</v>
+        <v>1.339844982746289</v>
       </c>
       <c r="F25" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3471608259769075</v>
+        <v>1.3385741541971554</v>
       </c>
       <c r="O25" s="6"/>
       <c r="P25" s="6"/>
@@ -4210,23 +4206,23 @@
       </c>
       <c r="B26" s="14">
         <f ca="1">B25+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3471608259769075</v>
+        <v>1.3385741541971554</v>
       </c>
       <c r="C26" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3471608259769075</v>
+        <v>1.3385741541971554</v>
       </c>
       <c r="D26" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3471608259769075</v>
+        <v>1.3385741541971554</v>
       </c>
       <c r="E26" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3471608259769075</v>
+        <v>1.3385741541971554</v>
       </c>
       <c r="F26" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3484856108622838</v>
+        <v>1.3388399849921078</v>
       </c>
       <c r="O26" s="6"/>
       <c r="P26" s="6"/>
@@ -4239,23 +4235,23 @@
       </c>
       <c r="B27" s="14">
         <f ca="1">B26+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3484856108622838</v>
+        <v>1.3388399849921078</v>
       </c>
       <c r="C27" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3484856108622838</v>
+        <v>1.3388399849921078</v>
       </c>
       <c r="D27" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3484856108622838</v>
+        <v>1.3388399849921078</v>
       </c>
       <c r="E27" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3484856108622838</v>
+        <v>1.3388399849921078</v>
       </c>
       <c r="F27" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3490723326896135</v>
+        <v>1.3370863283322962</v>
       </c>
       <c r="O27" s="6"/>
       <c r="P27" s="6"/>
@@ -4268,23 +4264,23 @@
       </c>
       <c r="B28" s="14">
         <f ca="1">B27+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3490723326896135</v>
+        <v>1.3370863283322962</v>
       </c>
       <c r="C28" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3490723326896135</v>
+        <v>1.3370863283322962</v>
       </c>
       <c r="D28" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3490723326896135</v>
+        <v>1.3370863283322962</v>
       </c>
       <c r="E28" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3490723326896135</v>
+        <v>1.3370863283322962</v>
       </c>
       <c r="F28" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3501564302517768</v>
+        <v>1.3377347981982572</v>
       </c>
       <c r="O28" s="6"/>
       <c r="P28" s="6"/>
@@ -4297,23 +4293,23 @@
       </c>
       <c r="B29" s="14">
         <f ca="1">B28+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3501564302517768</v>
+        <v>1.3377347981982572</v>
       </c>
       <c r="C29" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3501564302517768</v>
+        <v>1.3377347981982572</v>
       </c>
       <c r="D29" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3501564302517768</v>
+        <v>1.3377347981982572</v>
       </c>
       <c r="E29" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3501564302517768</v>
+        <v>1.3377347981982572</v>
       </c>
       <c r="F29" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.350953976967058</v>
+        <v>1.33793729124948</v>
       </c>
       <c r="O29" s="6"/>
       <c r="P29" s="6"/>
@@ -4326,23 +4322,23 @@
       </c>
       <c r="B30" s="14">
         <f ca="1">B29+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.350953976967058</v>
+        <v>1.33793729124948</v>
       </c>
       <c r="C30" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.350953976967058</v>
+        <v>1.33793729124948</v>
       </c>
       <c r="D30" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.350953976967058</v>
+        <v>1.33793729124948</v>
       </c>
       <c r="E30" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.350953976967058</v>
+        <v>1.33793729124948</v>
       </c>
       <c r="F30" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3505825468242232</v>
+        <v>1.3386198968471441</v>
       </c>
       <c r="O30" s="6"/>
       <c r="P30" s="6"/>
@@ -4355,23 +4351,23 @@
       </c>
       <c r="B31" s="14">
         <f ca="1">B30+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3505825468242232</v>
+        <v>1.3386198968471441</v>
       </c>
       <c r="C31" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3505825468242232</v>
+        <v>1.3386198968471441</v>
       </c>
       <c r="D31" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3505825468242232</v>
+        <v>1.3386198968471441</v>
       </c>
       <c r="E31" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3505825468242232</v>
+        <v>1.3386198968471441</v>
       </c>
       <c r="F31" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3514121618355386</v>
+        <v>1.3402406431692953</v>
       </c>
       <c r="O31" s="6"/>
       <c r="P31" s="6"/>
@@ -4384,23 +4380,23 @@
       </c>
       <c r="B32" s="14">
         <f ca="1">B31+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3514121618355386</v>
+        <v>1.3402406431692953</v>
       </c>
       <c r="C32" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3514121618355386</v>
+        <v>1.3402406431692953</v>
       </c>
       <c r="D32" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3514121618355386</v>
+        <v>1.3402406431692953</v>
       </c>
       <c r="E32" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3514121618355386</v>
+        <v>1.3402406431692953</v>
       </c>
       <c r="F32" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3512228029848423</v>
+        <v>1.3400382445205521</v>
       </c>
       <c r="O32" s="6"/>
       <c r="P32" s="6"/>
@@ -4413,23 +4409,23 @@
       </c>
       <c r="B33" s="14">
         <f ca="1">B32+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3512228029848423</v>
+        <v>1.3400382445205521</v>
       </c>
       <c r="C33" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3512228029848423</v>
+        <v>1.3400382445205521</v>
       </c>
       <c r="D33" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3512228029848423</v>
+        <v>1.3400382445205521</v>
       </c>
       <c r="E33" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3512228029848423</v>
+        <v>1.3400382445205521</v>
       </c>
       <c r="F33" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3520011113215813</v>
+        <v>1.3387656628529434</v>
       </c>
       <c r="O33" s="6"/>
       <c r="P33" s="6"/>
@@ -4442,23 +4438,23 @@
       </c>
       <c r="B34" s="14">
         <f ca="1">B33+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3520011113215813</v>
+        <v>1.3387656628529434</v>
       </c>
       <c r="C34" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3520011113215813</v>
+        <v>1.3387656628529434</v>
       </c>
       <c r="D34" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3520011113215813</v>
+        <v>1.3387656628529434</v>
       </c>
       <c r="E34" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3520011113215813</v>
+        <v>1.3387656628529434</v>
       </c>
       <c r="F34" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3514601555563561</v>
+        <v>1.3375883605225101</v>
       </c>
       <c r="O34" s="6"/>
       <c r="P34" s="6"/>
@@ -4471,23 +4467,23 @@
       </c>
       <c r="B35" s="14">
         <f ca="1">B34+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3514601555563561</v>
+        <v>1.3375883605225101</v>
       </c>
       <c r="C35" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3514601555563561</v>
+        <v>1.3375883605225101</v>
       </c>
       <c r="D35" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3514601555563561</v>
+        <v>1.3375883605225101</v>
       </c>
       <c r="E35" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3514601555563561</v>
+        <v>1.3375883605225101</v>
       </c>
       <c r="F35" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3525097814843703</v>
+        <v>1.337832338563671</v>
       </c>
       <c r="O35" s="6"/>
     </row>
@@ -4497,23 +4493,23 @@
       </c>
       <c r="B36" s="14">
         <f ca="1">B35+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3525097814843703</v>
+        <v>1.337832338563671</v>
       </c>
       <c r="C36" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3525097814843703</v>
+        <v>1.337832338563671</v>
       </c>
       <c r="D36" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3525097814843703</v>
+        <v>1.337832338563671</v>
       </c>
       <c r="E36" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3525097814843703</v>
+        <v>1.337832338563671</v>
       </c>
       <c r="F36" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3539071660851112</v>
+        <v>1.3376561563333027</v>
       </c>
     </row>
     <row r="37" spans="1:18">
@@ -4522,23 +4518,23 @@
       </c>
       <c r="B37" s="14">
         <f ca="1">B36+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3539071660851112</v>
+        <v>1.3376561563333027</v>
       </c>
       <c r="C37" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3539071660851112</v>
+        <v>1.3376561563333027</v>
       </c>
       <c r="D37" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3539071660851112</v>
+        <v>1.3376561563333027</v>
       </c>
       <c r="E37" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3539071660851112</v>
+        <v>1.3376561563333027</v>
       </c>
       <c r="F37" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.353973714969344</v>
+        <v>1.3354535559950267</v>
       </c>
     </row>
     <row r="38" spans="1:18">
@@ -4547,23 +4543,23 @@
       </c>
       <c r="B38" s="14">
         <f ca="1">B37+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.353973714969344</v>
+        <v>1.3354535559950267</v>
       </c>
       <c r="C38" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.353973714969344</v>
+        <v>1.3354535559950267</v>
       </c>
       <c r="D38" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.353973714969344</v>
+        <v>1.3354535559950267</v>
       </c>
       <c r="E38" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.353973714969344</v>
+        <v>1.3354535559950267</v>
       </c>
       <c r="F38" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3542045078845248</v>
+        <v>1.3343094928065087</v>
       </c>
     </row>
     <row r="39" spans="1:18">
@@ -4572,23 +4568,23 @@
       </c>
       <c r="B39" s="14">
         <f ca="1">B38+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3542045078845248</v>
+        <v>1.3343094928065087</v>
       </c>
       <c r="C39" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3542045078845248</v>
+        <v>1.3343094928065087</v>
       </c>
       <c r="D39" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3542045078845248</v>
+        <v>1.3343094928065087</v>
       </c>
       <c r="E39" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3542045078845248</v>
+        <v>1.3343094928065087</v>
       </c>
       <c r="F39" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3538324020727435</v>
+        <v>1.3346824406369864</v>
       </c>
     </row>
     <row r="40" spans="1:18">
@@ -4597,23 +4593,23 @@
       </c>
       <c r="B40" s="14">
         <f ca="1">B39+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3538324020727435</v>
+        <v>1.3346824406369864</v>
       </c>
       <c r="C40" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3538324020727435</v>
+        <v>1.3346824406369864</v>
       </c>
       <c r="D40" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3538324020727435</v>
+        <v>1.3346824406369864</v>
       </c>
       <c r="E40" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3538324020727435</v>
+        <v>1.3346824406369864</v>
       </c>
       <c r="F40" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3535099890964337</v>
+        <v>1.3344204060648701</v>
       </c>
     </row>
     <row r="41" spans="1:18">
@@ -4622,23 +4618,23 @@
       </c>
       <c r="B41" s="14">
         <f ca="1">B40+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3535099890964337</v>
+        <v>1.3344204060648701</v>
       </c>
       <c r="C41" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3535099890964337</v>
+        <v>1.3344204060648701</v>
       </c>
       <c r="D41" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3535099890964337</v>
+        <v>1.3344204060648701</v>
       </c>
       <c r="E41" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3535099890964337</v>
+        <v>1.3344204060648701</v>
       </c>
       <c r="F41" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3546350545846089</v>
+        <v>1.3353944659127883</v>
       </c>
     </row>
     <row r="42" spans="1:18">
@@ -4647,23 +4643,23 @@
       </c>
       <c r="B42" s="14">
         <f ca="1">B41+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3546350545846089</v>
+        <v>1.3353944659127883</v>
       </c>
       <c r="C42" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3546350545846089</v>
+        <v>1.3353944659127883</v>
       </c>
       <c r="D42" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3546350545846089</v>
+        <v>1.3353944659127883</v>
       </c>
       <c r="E42" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3546350545846089</v>
+        <v>1.3353944659127883</v>
       </c>
       <c r="F42" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3547251342723217</v>
+        <v>1.3353079034727955</v>
       </c>
     </row>
     <row r="43" spans="1:18">
@@ -4672,23 +4668,23 @@
       </c>
       <c r="B43" s="14">
         <f ca="1">B42+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3547251342723217</v>
+        <v>1.3353079034727955</v>
       </c>
       <c r="C43" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3547251342723217</v>
+        <v>1.3353079034727955</v>
       </c>
       <c r="D43" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3547251342723217</v>
+        <v>1.3353079034727955</v>
       </c>
       <c r="E43" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3547251342723217</v>
+        <v>1.3353079034727955</v>
       </c>
       <c r="F43" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3556743858796334</v>
+        <v>1.3353896401329139</v>
       </c>
     </row>
     <row r="44" spans="1:18">
@@ -4697,23 +4693,23 @@
       </c>
       <c r="B44" s="14">
         <f ca="1">B43+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3556743858796334</v>
+        <v>1.3353896401329139</v>
       </c>
       <c r="C44" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3556743858796334</v>
+        <v>1.3353896401329139</v>
       </c>
       <c r="D44" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3556743858796334</v>
+        <v>1.3353896401329139</v>
       </c>
       <c r="E44" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3556743858796334</v>
+        <v>1.3353896401329139</v>
       </c>
       <c r="F44" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3562460917549142</v>
+        <v>1.3359415503294318</v>
       </c>
     </row>
     <row r="45" spans="1:18">
@@ -4722,23 +4718,23 @@
       </c>
       <c r="B45" s="14">
         <f ca="1">B44+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3562460917549142</v>
+        <v>1.3359415503294318</v>
       </c>
       <c r="C45" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3562460917549142</v>
+        <v>1.3359415503294318</v>
       </c>
       <c r="D45" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3562460917549142</v>
+        <v>1.3359415503294318</v>
       </c>
       <c r="E45" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3562460917549142</v>
+        <v>1.3359415503294318</v>
       </c>
       <c r="F45" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3579926906087021</v>
+        <v>1.33579026305472</v>
       </c>
     </row>
     <row r="46" spans="1:18">
@@ -4747,23 +4743,23 @@
       </c>
       <c r="B46" s="14">
         <f ca="1">B45+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3579926906087021</v>
+        <v>1.33579026305472</v>
       </c>
       <c r="C46" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3579926906087021</v>
+        <v>1.33579026305472</v>
       </c>
       <c r="D46" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3579926906087021</v>
+        <v>1.33579026305472</v>
       </c>
       <c r="E46" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3579926906087021</v>
+        <v>1.33579026305472</v>
       </c>
       <c r="F46" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3579039468857208</v>
+        <v>1.333885817513581</v>
       </c>
     </row>
     <row r="47" spans="1:18">
@@ -4772,23 +4768,23 @@
       </c>
       <c r="B47" s="14">
         <f ca="1">B46+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3579039468857208</v>
+        <v>1.333885817513581</v>
       </c>
       <c r="C47" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3579039468857208</v>
+        <v>1.333885817513581</v>
       </c>
       <c r="D47" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3579039468857208</v>
+        <v>1.333885817513581</v>
       </c>
       <c r="E47" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3579039468857208</v>
+        <v>1.333885817513581</v>
       </c>
       <c r="F47" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3574805477784704</v>
+        <v>1.3338365757674129</v>
       </c>
     </row>
     <row r="48" spans="1:18">
@@ -4797,23 +4793,23 @@
       </c>
       <c r="B48" s="14">
         <f ca="1">B47+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3574805477784704</v>
+        <v>1.3338365757674129</v>
       </c>
       <c r="C48" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3574805477784704</v>
+        <v>1.3338365757674129</v>
       </c>
       <c r="D48" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3574805477784704</v>
+        <v>1.3338365757674129</v>
       </c>
       <c r="E48" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3574805477784704</v>
+        <v>1.3338365757674129</v>
       </c>
       <c r="F48" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3583798012390949</v>
+        <v>1.3331537102986804</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -4822,23 +4818,23 @@
       </c>
       <c r="B49" s="14">
         <f ca="1">B48+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3583798012390949</v>
+        <v>1.3331537102986804</v>
       </c>
       <c r="C49" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3583798012390949</v>
+        <v>1.3331537102986804</v>
       </c>
       <c r="D49" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3583798012390949</v>
+        <v>1.3331537102986804</v>
       </c>
       <c r="E49" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3583798012390949</v>
+        <v>1.3331537102986804</v>
       </c>
       <c r="F49" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3595451799305445</v>
+        <v>1.3304908435912364</v>
       </c>
     </row>
     <row r="50" spans="1:6">
@@ -4847,23 +4843,23 @@
       </c>
       <c r="B50" s="14">
         <f ca="1">B49+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3595451799305445</v>
+        <v>1.3304908435912364</v>
       </c>
       <c r="C50" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3595451799305445</v>
+        <v>1.3304908435912364</v>
       </c>
       <c r="D50" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3595451799305445</v>
+        <v>1.3304908435912364</v>
       </c>
       <c r="E50" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3595451799305445</v>
+        <v>1.3304908435912364</v>
       </c>
       <c r="F50" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3606044971395155</v>
+        <v>1.3311077798289528</v>
       </c>
     </row>
     <row r="51" spans="1:6">
@@ -4872,23 +4868,23 @@
       </c>
       <c r="B51" s="14">
         <f ca="1">B50+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3606044971395155</v>
+        <v>1.3311077798289528</v>
       </c>
       <c r="C51" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3606044971395155</v>
+        <v>1.3311077798289528</v>
       </c>
       <c r="D51" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3606044971395155</v>
+        <v>1.3311077798289528</v>
       </c>
       <c r="E51" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3606044971395155</v>
+        <v>1.3311077798289528</v>
       </c>
       <c r="F51" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3623002605994898</v>
+        <v>1.3310918186885907</v>
       </c>
     </row>
     <row r="52" spans="1:6">
@@ -4897,23 +4893,23 @@
       </c>
       <c r="B52" s="14">
         <f ca="1">B51+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3623002605994898</v>
+        <v>1.3310918186885907</v>
       </c>
       <c r="C52" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3623002605994898</v>
+        <v>1.3310918186885907</v>
       </c>
       <c r="D52" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3623002605994898</v>
+        <v>1.3310918186885907</v>
       </c>
       <c r="E52" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3623002605994898</v>
+        <v>1.3310918186885907</v>
       </c>
       <c r="F52" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3633325160471468</v>
+        <v>1.3312902352260163</v>
       </c>
     </row>
     <row r="53" spans="1:6">
@@ -4922,23 +4918,23 @@
       </c>
       <c r="B53" s="14">
         <f ca="1">B52+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3633325160471468</v>
+        <v>1.3312902352260163</v>
       </c>
       <c r="C53" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3633325160471468</v>
+        <v>1.3312902352260163</v>
       </c>
       <c r="D53" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3633325160471468</v>
+        <v>1.3312902352260163</v>
       </c>
       <c r="E53" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3633325160471468</v>
+        <v>1.3312902352260163</v>
       </c>
       <c r="F53" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3622618236779704</v>
+        <v>1.3322317700842381</v>
       </c>
     </row>
     <row r="54" spans="1:6">
@@ -4947,23 +4943,23 @@
       </c>
       <c r="B54" s="14">
         <f ca="1">B53+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3622618236779704</v>
+        <v>1.3322317700842381</v>
       </c>
       <c r="C54" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3622618236779704</v>
+        <v>1.3322317700842381</v>
       </c>
       <c r="D54" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3622618236779704</v>
+        <v>1.3322317700842381</v>
       </c>
       <c r="E54" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3622618236779704</v>
+        <v>1.3322317700842381</v>
       </c>
       <c r="F54" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3623319049672657</v>
+        <v>1.3334304686825367</v>
       </c>
     </row>
     <row r="55" spans="1:6">
@@ -4972,23 +4968,23 @@
       </c>
       <c r="B55" s="14">
         <f ca="1">B54+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3623319049672657</v>
+        <v>1.3334304686825367</v>
       </c>
       <c r="C55" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3623319049672657</v>
+        <v>1.3334304686825367</v>
       </c>
       <c r="D55" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3623319049672657</v>
+        <v>1.3334304686825367</v>
       </c>
       <c r="E55" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3623319049672657</v>
+        <v>1.3334304686825367</v>
       </c>
       <c r="F55" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3618341624648247</v>
+        <v>1.333269271916881</v>
       </c>
     </row>
     <row r="56" spans="1:6">
@@ -4997,23 +4993,23 @@
       </c>
       <c r="B56" s="14">
         <f ca="1">B55+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3618341624648247</v>
+        <v>1.333269271916881</v>
       </c>
       <c r="C56" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3618341624648247</v>
+        <v>1.333269271916881</v>
       </c>
       <c r="D56" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3618341624648247</v>
+        <v>1.333269271916881</v>
       </c>
       <c r="E56" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3618341624648247</v>
+        <v>1.333269271916881</v>
       </c>
       <c r="F56" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3627390207859693</v>
+        <v>1.3331269836850297</v>
       </c>
     </row>
     <row r="57" spans="1:6">
@@ -5022,23 +5018,23 @@
       </c>
       <c r="B57" s="14">
         <f ca="1">B56+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3627390207859693</v>
+        <v>1.3331269836850297</v>
       </c>
       <c r="C57" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3627390207859693</v>
+        <v>1.3331269836850297</v>
       </c>
       <c r="D57" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3627390207859693</v>
+        <v>1.3331269836850297</v>
       </c>
       <c r="E57" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3627390207859693</v>
+        <v>1.3331269836850297</v>
       </c>
       <c r="F57" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3648488591773869</v>
+        <v>1.3342148341675248</v>
       </c>
     </row>
     <row r="58" spans="1:6">
@@ -5047,23 +5043,23 @@
       </c>
       <c r="B58" s="14">
         <f ca="1">B57+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3648488591773869</v>
+        <v>1.3342148341675248</v>
       </c>
       <c r="C58" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3648488591773869</v>
+        <v>1.3342148341675248</v>
       </c>
       <c r="D58" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3648488591773869</v>
+        <v>1.3342148341675248</v>
       </c>
       <c r="E58" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3648488591773869</v>
+        <v>1.3342148341675248</v>
       </c>
       <c r="F58" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3657510816988252</v>
+        <v>1.3344608339774298</v>
       </c>
     </row>
     <row r="59" spans="1:6">
@@ -5072,23 +5068,23 @@
       </c>
       <c r="B59" s="14">
         <f ca="1">B58+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3657510816988252</v>
+        <v>1.3344608339774298</v>
       </c>
       <c r="C59" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3657510816988252</v>
+        <v>1.3344608339774298</v>
       </c>
       <c r="D59" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3657510816988252</v>
+        <v>1.3344608339774298</v>
       </c>
       <c r="E59" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3657510816988252</v>
+        <v>1.3344608339774298</v>
       </c>
       <c r="F59" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3651392221108498</v>
+        <v>1.3338490335326993</v>
       </c>
     </row>
     <row r="60" spans="1:6">
@@ -5097,23 +5093,23 @@
       </c>
       <c r="B60" s="14">
         <f ca="1">B59+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3651392221108498</v>
+        <v>1.3338490335326993</v>
       </c>
       <c r="C60" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3651392221108498</v>
+        <v>1.3338490335326993</v>
       </c>
       <c r="D60" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3651392221108498</v>
+        <v>1.3338490335326993</v>
       </c>
       <c r="E60" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3651392221108498</v>
+        <v>1.3338490335326993</v>
       </c>
       <c r="F60" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3672003535330122</v>
+        <v>1.3336236613497849</v>
       </c>
     </row>
     <row r="61" spans="1:6">
@@ -5122,23 +5118,23 @@
       </c>
       <c r="B61" s="14">
         <f ca="1">B60+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3672003535330122</v>
+        <v>1.3336236613497849</v>
       </c>
       <c r="C61" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3672003535330122</v>
+        <v>1.3336236613497849</v>
       </c>
       <c r="D61" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3672003535330122</v>
+        <v>1.3336236613497849</v>
       </c>
       <c r="E61" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3672003535330122</v>
+        <v>1.3336236613497849</v>
       </c>
       <c r="F61" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3663742264588328</v>
+        <v>1.3330329370036551</v>
       </c>
     </row>
     <row r="62" spans="1:6">
@@ -5147,23 +5143,23 @@
       </c>
       <c r="B62" s="14">
         <f ca="1">B61+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3663742264588328</v>
+        <v>1.3330329370036551</v>
       </c>
       <c r="C62" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3663742264588328</v>
+        <v>1.3330329370036551</v>
       </c>
       <c r="D62" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3663742264588328</v>
+        <v>1.3330329370036551</v>
       </c>
       <c r="E62" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3663742264588328</v>
+        <v>1.3330329370036551</v>
       </c>
       <c r="F62" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3675950753694301</v>
+        <v>1.3331847587107428</v>
       </c>
     </row>
     <row r="63" spans="1:6">
@@ -5172,23 +5168,23 @@
       </c>
       <c r="B63" s="14">
         <f ca="1">B62+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3675950753694301</v>
+        <v>1.3331847587107428</v>
       </c>
       <c r="C63" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3675950753694301</v>
+        <v>1.3331847587107428</v>
       </c>
       <c r="D63" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3675950753694301</v>
+        <v>1.3331847587107428</v>
       </c>
       <c r="E63" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3675950753694301</v>
+        <v>1.3331847587107428</v>
       </c>
       <c r="F63" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.368378193024075</v>
+        <v>1.3339076039009465</v>
       </c>
     </row>
     <row r="64" spans="1:6">
@@ -5197,23 +5193,23 @@
       </c>
       <c r="B64" s="14">
         <f ca="1">B63+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.368378193024075</v>
+        <v>1.3339076039009465</v>
       </c>
       <c r="C64" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.368378193024075</v>
+        <v>1.3339076039009465</v>
       </c>
       <c r="D64" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.368378193024075</v>
+        <v>1.3339076039009465</v>
       </c>
       <c r="E64" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.368378193024075</v>
+        <v>1.3339076039009465</v>
       </c>
       <c r="F64" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3707592338014398</v>
+        <v>1.3349438603063652</v>
       </c>
     </row>
     <row r="65" spans="1:6">
@@ -5222,23 +5218,23 @@
       </c>
       <c r="B65" s="14">
         <f ca="1">B64+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3707592338014398</v>
+        <v>1.3349438603063652</v>
       </c>
       <c r="C65" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3707592338014398</v>
+        <v>1.3349438603063652</v>
       </c>
       <c r="D65" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3707592338014398</v>
+        <v>1.3349438603063652</v>
       </c>
       <c r="E65" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3707592338014398</v>
+        <v>1.3349438603063652</v>
       </c>
       <c r="F65" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3716533825256803</v>
+        <v>1.3348505419642354</v>
       </c>
     </row>
     <row r="66" spans="1:6">
@@ -5247,23 +5243,23 @@
       </c>
       <c r="B66" s="14">
         <f ca="1">B65+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3716533825256803</v>
+        <v>1.3348505419642354</v>
       </c>
       <c r="C66" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3716533825256803</v>
+        <v>1.3348505419642354</v>
       </c>
       <c r="D66" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3716533825256803</v>
+        <v>1.3348505419642354</v>
       </c>
       <c r="E66" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3716533825256803</v>
+        <v>1.3348505419642354</v>
       </c>
       <c r="F66" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3708166622886657</v>
+        <v>1.3347061028922929</v>
       </c>
     </row>
     <row r="67" spans="1:6">
@@ -5272,23 +5268,23 @@
       </c>
       <c r="B67" s="14">
         <f ca="1">B66+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3708166622886657</v>
+        <v>1.3347061028922929</v>
       </c>
       <c r="C67" s="14">
         <f t="shared" ca="1" si="0"/>
-        <v>1.3708166622886657</v>
+        <v>1.3347061028922929</v>
       </c>
       <c r="D67" s="14">
         <f t="shared" ca="1" si="1"/>
-        <v>1.3708166622886657</v>
+        <v>1.3347061028922929</v>
       </c>
       <c r="E67" s="14">
         <f t="shared" ca="1" si="2"/>
-        <v>1.3708166622886657</v>
+        <v>1.3347061028922929</v>
       </c>
       <c r="F67" s="14">
         <f t="shared" ca="1" si="3"/>
-        <v>1.3724027555240026</v>
+        <v>1.3346264093180586</v>
       </c>
     </row>
     <row r="68" spans="1:6">
@@ -5297,23 +5293,23 @@
       </c>
       <c r="B68" s="14">
         <f ca="1">B67+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3724027555240026</v>
+        <v>1.3346264093180586</v>
       </c>
       <c r="C68" s="14">
         <f t="shared" ref="C68:C108" ca="1" si="4">B68</f>
-        <v>1.3724027555240026</v>
+        <v>1.3346264093180586</v>
       </c>
       <c r="D68" s="14">
         <f t="shared" ref="D68:D108" ca="1" si="5">B68</f>
-        <v>1.3724027555240026</v>
+        <v>1.3346264093180586</v>
       </c>
       <c r="E68" s="14">
         <f t="shared" ref="E68:E108" ca="1" si="6">B68</f>
-        <v>1.3724027555240026</v>
+        <v>1.3346264093180586</v>
       </c>
       <c r="F68" s="14">
         <f t="shared" ref="F68:F108" ca="1" si="7">B69</f>
-        <v>1.3729402076534631</v>
+        <v>1.3356563000210058</v>
       </c>
     </row>
     <row r="69" spans="1:6">
@@ -5322,23 +5318,23 @@
       </c>
       <c r="B69" s="14">
         <f ca="1">B68+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3729402076534631</v>
+        <v>1.3356563000210058</v>
       </c>
       <c r="C69" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3729402076534631</v>
+        <v>1.3356563000210058</v>
       </c>
       <c r="D69" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3729402076534631</v>
+        <v>1.3356563000210058</v>
       </c>
       <c r="E69" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3729402076534631</v>
+        <v>1.3356563000210058</v>
       </c>
       <c r="F69" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3737322555279154</v>
+        <v>1.3347025165496751</v>
       </c>
     </row>
     <row r="70" spans="1:6">
@@ -5347,23 +5343,23 @@
       </c>
       <c r="B70" s="14">
         <f ca="1">B69+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3737322555279154</v>
+        <v>1.3347025165496751</v>
       </c>
       <c r="C70" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3737322555279154</v>
+        <v>1.3347025165496751</v>
       </c>
       <c r="D70" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3737322555279154</v>
+        <v>1.3347025165496751</v>
       </c>
       <c r="E70" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3737322555279154</v>
+        <v>1.3347025165496751</v>
       </c>
       <c r="F70" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3727824680566856</v>
+        <v>1.3349416064111479</v>
       </c>
     </row>
     <row r="71" spans="1:6">
@@ -5372,23 +5368,23 @@
       </c>
       <c r="B71" s="14">
         <f ca="1">B70+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3727824680566856</v>
+        <v>1.3349416064111479</v>
       </c>
       <c r="C71" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3727824680566856</v>
+        <v>1.3349416064111479</v>
       </c>
       <c r="D71" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3727824680566856</v>
+        <v>1.3349416064111479</v>
       </c>
       <c r="E71" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3727824680566856</v>
+        <v>1.3349416064111479</v>
       </c>
       <c r="F71" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.374127685368246</v>
+        <v>1.3342393635812053</v>
       </c>
     </row>
     <row r="72" spans="1:6">
@@ -5397,23 +5393,23 @@
       </c>
       <c r="B72" s="14">
         <f ca="1">B71+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.374127685368246</v>
+        <v>1.3342393635812053</v>
       </c>
       <c r="C72" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.374127685368246</v>
+        <v>1.3342393635812053</v>
       </c>
       <c r="D72" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.374127685368246</v>
+        <v>1.3342393635812053</v>
       </c>
       <c r="E72" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.374127685368246</v>
+        <v>1.3342393635812053</v>
       </c>
       <c r="F72" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3736935147403135</v>
+        <v>1.334772038751886</v>
       </c>
     </row>
     <row r="73" spans="1:6">
@@ -5422,23 +5418,23 @@
       </c>
       <c r="B73" s="14">
         <f ca="1">B72+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3736935147403135</v>
+        <v>1.334772038751886</v>
       </c>
       <c r="C73" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3736935147403135</v>
+        <v>1.334772038751886</v>
       </c>
       <c r="D73" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3736935147403135</v>
+        <v>1.334772038751886</v>
       </c>
       <c r="E73" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3736935147403135</v>
+        <v>1.334772038751886</v>
       </c>
       <c r="F73" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3744677200457602</v>
+        <v>1.3336885048407792</v>
       </c>
     </row>
     <row r="74" spans="1:6">
@@ -5447,23 +5443,23 @@
       </c>
       <c r="B74" s="14">
         <f ca="1">B73+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3744677200457602</v>
+        <v>1.3336885048407792</v>
       </c>
       <c r="C74" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3744677200457602</v>
+        <v>1.3336885048407792</v>
       </c>
       <c r="D74" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3744677200457602</v>
+        <v>1.3336885048407792</v>
       </c>
       <c r="E74" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3744677200457602</v>
+        <v>1.3336885048407792</v>
       </c>
       <c r="F74" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3750627282936785</v>
+        <v>1.3345460204979616</v>
       </c>
     </row>
     <row r="75" spans="1:6">
@@ -5472,23 +5468,23 @@
       </c>
       <c r="B75" s="14">
         <f ca="1">B74+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3750627282936785</v>
+        <v>1.3345460204979616</v>
       </c>
       <c r="C75" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3750627282936785</v>
+        <v>1.3345460204979616</v>
       </c>
       <c r="D75" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3750627282936785</v>
+        <v>1.3345460204979616</v>
       </c>
       <c r="E75" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3750627282936785</v>
+        <v>1.3345460204979616</v>
       </c>
       <c r="F75" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3746641065376297</v>
+        <v>1.3354622853441713</v>
       </c>
     </row>
     <row r="76" spans="1:6">
@@ -5497,23 +5493,23 @@
       </c>
       <c r="B76" s="14">
         <f ca="1">B75+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3746641065376297</v>
+        <v>1.3354622853441713</v>
       </c>
       <c r="C76" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3746641065376297</v>
+        <v>1.3354622853441713</v>
       </c>
       <c r="D76" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3746641065376297</v>
+        <v>1.3354622853441713</v>
       </c>
       <c r="E76" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3746641065376297</v>
+        <v>1.3354622853441713</v>
       </c>
       <c r="F76" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.374738725045084</v>
+        <v>1.3361766913864408</v>
       </c>
     </row>
     <row r="77" spans="1:6">
@@ -5522,23 +5518,23 @@
       </c>
       <c r="B77" s="14">
         <f ca="1">B76+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.374738725045084</v>
+        <v>1.3361766913864408</v>
       </c>
       <c r="C77" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.374738725045084</v>
+        <v>1.3361766913864408</v>
       </c>
       <c r="D77" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.374738725045084</v>
+        <v>1.3361766913864408</v>
       </c>
       <c r="E77" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.374738725045084</v>
+        <v>1.3361766913864408</v>
       </c>
       <c r="F77" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3732547872128789</v>
+        <v>1.3337758328981721</v>
       </c>
     </row>
     <row r="78" spans="1:6">
@@ -5547,23 +5543,23 @@
       </c>
       <c r="B78" s="14">
         <f ca="1">B77+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3732547872128789</v>
+        <v>1.3337758328981721</v>
       </c>
       <c r="C78" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3732547872128789</v>
+        <v>1.3337758328981721</v>
       </c>
       <c r="D78" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3732547872128789</v>
+        <v>1.3337758328981721</v>
       </c>
       <c r="E78" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3732547872128789</v>
+        <v>1.3337758328981721</v>
       </c>
       <c r="F78" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3746697159458388</v>
+        <v>1.332216369244136</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -5572,23 +5568,23 @@
       </c>
       <c r="B79" s="14">
         <f ca="1">B78+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3746697159458388</v>
+        <v>1.332216369244136</v>
       </c>
       <c r="C79" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3746697159458388</v>
+        <v>1.332216369244136</v>
       </c>
       <c r="D79" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3746697159458388</v>
+        <v>1.332216369244136</v>
       </c>
       <c r="E79" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3746697159458388</v>
+        <v>1.332216369244136</v>
       </c>
       <c r="F79" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3748826155092708</v>
+        <v>1.3324863509870148</v>
       </c>
     </row>
     <row r="80" spans="1:6">
@@ -5597,23 +5593,23 @@
       </c>
       <c r="B80" s="14">
         <f ca="1">B79+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3748826155092708</v>
+        <v>1.3324863509870148</v>
       </c>
       <c r="C80" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3748826155092708</v>
+        <v>1.3324863509870148</v>
       </c>
       <c r="D80" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3748826155092708</v>
+        <v>1.3324863509870148</v>
       </c>
       <c r="E80" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3748826155092708</v>
+        <v>1.3324863509870148</v>
       </c>
       <c r="F80" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3738614604296793</v>
+        <v>1.3314786021358491</v>
       </c>
     </row>
     <row r="81" spans="1:6">
@@ -5622,23 +5618,23 @@
       </c>
       <c r="B81" s="14">
         <f ca="1">B80+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3738614604296793</v>
+        <v>1.3314786021358491</v>
       </c>
       <c r="C81" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3738614604296793</v>
+        <v>1.3314786021358491</v>
       </c>
       <c r="D81" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3738614604296793</v>
+        <v>1.3314786021358491</v>
       </c>
       <c r="E81" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3738614604296793</v>
+        <v>1.3314786021358491</v>
       </c>
       <c r="F81" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3737262531173204</v>
+        <v>1.3305775836165854</v>
       </c>
     </row>
     <row r="82" spans="1:6">
@@ -5647,23 +5643,23 @@
       </c>
       <c r="B82" s="14">
         <f ca="1">B81+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3737262531173204</v>
+        <v>1.3305775836165854</v>
       </c>
       <c r="C82" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3737262531173204</v>
+        <v>1.3305775836165854</v>
       </c>
       <c r="D82" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3737262531173204</v>
+        <v>1.3305775836165854</v>
       </c>
       <c r="E82" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3737262531173204</v>
+        <v>1.3305775836165854</v>
       </c>
       <c r="F82" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3718766740051647</v>
+        <v>1.3311801744396115</v>
       </c>
     </row>
     <row r="83" spans="1:6">
@@ -5672,23 +5668,23 @@
       </c>
       <c r="B83" s="14">
         <f ca="1">B82+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3718766740051647</v>
+        <v>1.3311801744396115</v>
       </c>
       <c r="C83" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3718766740051647</v>
+        <v>1.3311801744396115</v>
       </c>
       <c r="D83" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3718766740051647</v>
+        <v>1.3311801744396115</v>
       </c>
       <c r="E83" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3718766740051647</v>
+        <v>1.3311801744396115</v>
       </c>
       <c r="F83" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3691109007813596</v>
+        <v>1.3302516324649181</v>
       </c>
     </row>
     <row r="84" spans="1:6">
@@ -5697,23 +5693,23 @@
       </c>
       <c r="B84" s="14">
         <f ca="1">B83+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3691109007813596</v>
+        <v>1.3302516324649181</v>
       </c>
       <c r="C84" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3691109007813596</v>
+        <v>1.3302516324649181</v>
       </c>
       <c r="D84" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3691109007813596</v>
+        <v>1.3302516324649181</v>
       </c>
       <c r="E84" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3691109007813596</v>
+        <v>1.3302516324649181</v>
       </c>
       <c r="F84" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3687787458588938</v>
+        <v>1.3307463934645762</v>
       </c>
     </row>
     <row r="85" spans="1:6">
@@ -5722,23 +5718,23 @@
       </c>
       <c r="B85" s="14">
         <f ca="1">B84+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3687787458588938</v>
+        <v>1.3307463934645762</v>
       </c>
       <c r="C85" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3687787458588938</v>
+        <v>1.3307463934645762</v>
       </c>
       <c r="D85" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3687787458588938</v>
+        <v>1.3307463934645762</v>
       </c>
       <c r="E85" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3687787458588938</v>
+        <v>1.3307463934645762</v>
       </c>
       <c r="F85" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3709475356342673</v>
+        <v>1.3288247264531938</v>
       </c>
     </row>
     <row r="86" spans="1:6">
@@ -5747,23 +5743,23 @@
       </c>
       <c r="B86" s="14">
         <f ca="1">B85+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3709475356342673</v>
+        <v>1.3288247264531938</v>
       </c>
       <c r="C86" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3709475356342673</v>
+        <v>1.3288247264531938</v>
       </c>
       <c r="D86" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3709475356342673</v>
+        <v>1.3288247264531938</v>
       </c>
       <c r="E86" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3709475356342673</v>
+        <v>1.3288247264531938</v>
       </c>
       <c r="F86" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3730534599465691</v>
+        <v>1.3293320579245322</v>
       </c>
     </row>
     <row r="87" spans="1:6">
@@ -5772,23 +5768,23 @@
       </c>
       <c r="B87" s="14">
         <f ca="1">B86+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3730534599465691</v>
+        <v>1.3293320579245322</v>
       </c>
       <c r="C87" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3730534599465691</v>
+        <v>1.3293320579245322</v>
       </c>
       <c r="D87" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3730534599465691</v>
+        <v>1.3293320579245322</v>
       </c>
       <c r="E87" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3730534599465691</v>
+        <v>1.3293320579245322</v>
       </c>
       <c r="F87" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3732635123393218</v>
+        <v>1.3297856057396928</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -5797,23 +5793,23 @@
       </c>
       <c r="B88" s="14">
         <f ca="1">B87+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3732635123393218</v>
+        <v>1.3297856057396928</v>
       </c>
       <c r="C88" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3732635123393218</v>
+        <v>1.3297856057396928</v>
       </c>
       <c r="D88" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3732635123393218</v>
+        <v>1.3297856057396928</v>
       </c>
       <c r="E88" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3732635123393218</v>
+        <v>1.3297856057396928</v>
       </c>
       <c r="F88" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3732804808677865</v>
+        <v>1.3295672877956006</v>
       </c>
     </row>
     <row r="89" spans="1:6">
@@ -5822,23 +5818,23 @@
       </c>
       <c r="B89" s="14">
         <f ca="1">B88+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3732804808677865</v>
+        <v>1.3295672877956006</v>
       </c>
       <c r="C89" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3732804808677865</v>
+        <v>1.3295672877956006</v>
       </c>
       <c r="D89" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3732804808677865</v>
+        <v>1.3295672877956006</v>
       </c>
       <c r="E89" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3732804808677865</v>
+        <v>1.3295672877956006</v>
       </c>
       <c r="F89" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.37520228985091</v>
+        <v>1.331816658421936</v>
       </c>
     </row>
     <row r="90" spans="1:6">
@@ -5847,23 +5843,23 @@
       </c>
       <c r="B90" s="14">
         <f ca="1">B89+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.37520228985091</v>
+        <v>1.331816658421936</v>
       </c>
       <c r="C90" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.37520228985091</v>
+        <v>1.331816658421936</v>
       </c>
       <c r="D90" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.37520228985091</v>
+        <v>1.331816658421936</v>
       </c>
       <c r="E90" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.37520228985091</v>
+        <v>1.331816658421936</v>
       </c>
       <c r="F90" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3748336148774385</v>
+        <v>1.3315482189952088</v>
       </c>
     </row>
     <row r="91" spans="1:6">
@@ -5872,23 +5868,23 @@
       </c>
       <c r="B91" s="14">
         <f ca="1">B90+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3748336148774385</v>
+        <v>1.3315482189952088</v>
       </c>
       <c r="C91" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3748336148774385</v>
+        <v>1.3315482189952088</v>
       </c>
       <c r="D91" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3748336148774385</v>
+        <v>1.3315482189952088</v>
       </c>
       <c r="E91" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3748336148774385</v>
+        <v>1.3315482189952088</v>
       </c>
       <c r="F91" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3758192127183069</v>
+        <v>1.3312160033327052</v>
       </c>
     </row>
     <row r="92" spans="1:6">
@@ -5897,23 +5893,23 @@
       </c>
       <c r="B92" s="14">
         <f ca="1">B91+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3758192127183069</v>
+        <v>1.3312160033327052</v>
       </c>
       <c r="C92" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3758192127183069</v>
+        <v>1.3312160033327052</v>
       </c>
       <c r="D92" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3758192127183069</v>
+        <v>1.3312160033327052</v>
       </c>
       <c r="E92" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3758192127183069</v>
+        <v>1.3312160033327052</v>
       </c>
       <c r="F92" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.375944677931275</v>
+        <v>1.3294852263890806</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -5922,23 +5918,23 @@
       </c>
       <c r="B93" s="14">
         <f ca="1">B92+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.375944677931275</v>
+        <v>1.3294852263890806</v>
       </c>
       <c r="C93" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.375944677931275</v>
+        <v>1.3294852263890806</v>
       </c>
       <c r="D93" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.375944677931275</v>
+        <v>1.3294852263890806</v>
       </c>
       <c r="E93" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.375944677931275</v>
+        <v>1.3294852263890806</v>
       </c>
       <c r="F93" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.378280982366995</v>
+        <v>1.3282381374381371</v>
       </c>
     </row>
     <row r="94" spans="1:6">
@@ -5947,23 +5943,23 @@
       </c>
       <c r="B94" s="14">
         <f ca="1">B93+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.378280982366995</v>
+        <v>1.3282381374381371</v>
       </c>
       <c r="C94" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.378280982366995</v>
+        <v>1.3282381374381371</v>
       </c>
       <c r="D94" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.378280982366995</v>
+        <v>1.3282381374381371</v>
       </c>
       <c r="E94" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.378280982366995</v>
+        <v>1.3282381374381371</v>
       </c>
       <c r="F94" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3777616813549611</v>
+        <v>1.3283100951889981</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -5972,23 +5968,23 @@
       </c>
       <c r="B95" s="14">
         <f ca="1">B94+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3777616813549611</v>
+        <v>1.3283100951889981</v>
       </c>
       <c r="C95" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3777616813549611</v>
+        <v>1.3283100951889981</v>
       </c>
       <c r="D95" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3777616813549611</v>
+        <v>1.3283100951889981</v>
       </c>
       <c r="E95" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3777616813549611</v>
+        <v>1.3283100951889981</v>
       </c>
       <c r="F95" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.377109688986176</v>
+        <v>1.3273610487190237</v>
       </c>
     </row>
     <row r="96" spans="1:6">
@@ -5997,23 +5993,23 @@
       </c>
       <c r="B96" s="14">
         <f ca="1">B95+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.377109688986176</v>
+        <v>1.3273610487190237</v>
       </c>
       <c r="C96" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.377109688986176</v>
+        <v>1.3273610487190237</v>
       </c>
       <c r="D96" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.377109688986176</v>
+        <v>1.3273610487190237</v>
       </c>
       <c r="E96" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.377109688986176</v>
+        <v>1.3273610487190237</v>
       </c>
       <c r="F96" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.377953842119013</v>
+        <v>1.3281656834850959</v>
       </c>
     </row>
     <row r="97" spans="1:6">
@@ -6022,23 +6018,23 @@
       </c>
       <c r="B97" s="14">
         <f ca="1">B96+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.377953842119013</v>
+        <v>1.3281656834850959</v>
       </c>
       <c r="C97" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.377953842119013</v>
+        <v>1.3281656834850959</v>
       </c>
       <c r="D97" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.377953842119013</v>
+        <v>1.3281656834850959</v>
       </c>
       <c r="E97" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.377953842119013</v>
+        <v>1.3281656834850959</v>
       </c>
       <c r="F97" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3800386103518436</v>
+        <v>1.3280755130863104</v>
       </c>
     </row>
     <row r="98" spans="1:6">
@@ -6047,23 +6043,23 @@
       </c>
       <c r="B98" s="14">
         <f ca="1">B97+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3800386103518436</v>
+        <v>1.3280755130863104</v>
       </c>
       <c r="C98" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3800386103518436</v>
+        <v>1.3280755130863104</v>
       </c>
       <c r="D98" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3800386103518436</v>
+        <v>1.3280755130863104</v>
       </c>
       <c r="E98" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3800386103518436</v>
+        <v>1.3280755130863104</v>
       </c>
       <c r="F98" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.38008748381576</v>
+        <v>1.3278849568354665</v>
       </c>
     </row>
     <row r="99" spans="1:6">
@@ -6072,23 +6068,23 @@
       </c>
       <c r="B99" s="14">
         <f ca="1">B98+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.38008748381576</v>
+        <v>1.3278849568354665</v>
       </c>
       <c r="C99" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.38008748381576</v>
+        <v>1.3278849568354665</v>
       </c>
       <c r="D99" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.38008748381576</v>
+        <v>1.3278849568354665</v>
       </c>
       <c r="E99" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.38008748381576</v>
+        <v>1.3278849568354665</v>
       </c>
       <c r="F99" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3794853226990758</v>
+        <v>1.3289689044881987</v>
       </c>
     </row>
     <row r="100" spans="1:6">
@@ -6097,23 +6093,23 @@
       </c>
       <c r="B100" s="14">
         <f ca="1">B99+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3794853226990758</v>
+        <v>1.3289689044881987</v>
       </c>
       <c r="C100" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3794853226990758</v>
+        <v>1.3289689044881987</v>
       </c>
       <c r="D100" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3794853226990758</v>
+        <v>1.3289689044881987</v>
       </c>
       <c r="E100" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3794853226990758</v>
+        <v>1.3289689044881987</v>
       </c>
       <c r="F100" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3790690036174871</v>
+        <v>1.328002556969238</v>
       </c>
     </row>
     <row r="101" spans="1:6">
@@ -6122,23 +6118,23 @@
       </c>
       <c r="B101" s="14">
         <f ca="1">B100+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3790690036174871</v>
+        <v>1.328002556969238</v>
       </c>
       <c r="C101" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3790690036174871</v>
+        <v>1.328002556969238</v>
       </c>
       <c r="D101" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3790690036174871</v>
+        <v>1.328002556969238</v>
       </c>
       <c r="E101" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3790690036174871</v>
+        <v>1.328002556969238</v>
       </c>
       <c r="F101" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3787485440798943</v>
+        <v>1.3281921981121294</v>
       </c>
     </row>
     <row r="102" spans="1:6">
@@ -6147,23 +6143,23 @@
       </c>
       <c r="B102" s="14">
         <f ca="1">B101+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3787485440798943</v>
+        <v>1.3281921981121294</v>
       </c>
       <c r="C102" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3787485440798943</v>
+        <v>1.3281921981121294</v>
       </c>
       <c r="D102" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3787485440798943</v>
+        <v>1.3281921981121294</v>
       </c>
       <c r="E102" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3787485440798943</v>
+        <v>1.3281921981121294</v>
       </c>
       <c r="F102" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.379394337601529</v>
+        <v>1.3268120768007228</v>
       </c>
     </row>
     <row r="103" spans="1:6">
@@ -6172,23 +6168,23 @@
       </c>
       <c r="B103" s="14">
         <f ca="1">B102+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.379394337601529</v>
+        <v>1.3268120768007228</v>
       </c>
       <c r="C103" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.379394337601529</v>
+        <v>1.3268120768007228</v>
       </c>
       <c r="D103" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.379394337601529</v>
+        <v>1.3268120768007228</v>
       </c>
       <c r="E103" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.379394337601529</v>
+        <v>1.3268120768007228</v>
       </c>
       <c r="F103" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.379088933562538</v>
+        <v>1.3270851540613122</v>
       </c>
     </row>
     <row r="104" spans="1:6">
@@ -6197,23 +6193,23 @@
       </c>
       <c r="B104" s="14">
         <f ca="1">B103+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.379088933562538</v>
+        <v>1.3270851540613122</v>
       </c>
       <c r="C104" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.379088933562538</v>
+        <v>1.3270851540613122</v>
       </c>
       <c r="D104" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.379088933562538</v>
+        <v>1.3270851540613122</v>
       </c>
       <c r="E104" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.379088933562538</v>
+        <v>1.3270851540613122</v>
       </c>
       <c r="F104" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3785818125410059</v>
+        <v>1.3277479901267564</v>
       </c>
     </row>
     <row r="105" spans="1:6">
@@ -6222,23 +6218,23 @@
       </c>
       <c r="B105" s="14">
         <f ca="1">B104+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3785818125410059</v>
+        <v>1.3277479901267564</v>
       </c>
       <c r="C105" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3785818125410059</v>
+        <v>1.3277479901267564</v>
       </c>
       <c r="D105" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3785818125410059</v>
+        <v>1.3277479901267564</v>
       </c>
       <c r="E105" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3785818125410059</v>
+        <v>1.3277479901267564</v>
       </c>
       <c r="F105" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3782707799288352</v>
+        <v>1.3286284711688821</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -6247,23 +6243,23 @@
       </c>
       <c r="B106" s="14">
         <f ca="1">B105+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3782707799288352</v>
+        <v>1.3286284711688821</v>
       </c>
       <c r="C106" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3782707799288352</v>
+        <v>1.3286284711688821</v>
       </c>
       <c r="D106" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3782707799288352</v>
+        <v>1.3286284711688821</v>
       </c>
       <c r="E106" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3782707799288352</v>
+        <v>1.3286284711688821</v>
       </c>
       <c r="F106" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3779626061403807</v>
+        <v>1.327885867503801</v>
       </c>
     </row>
     <row r="107" spans="1:6">
@@ -6272,23 +6268,23 @@
       </c>
       <c r="B107" s="14">
         <f ca="1">B106+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3779626061403807</v>
+        <v>1.327885867503801</v>
       </c>
       <c r="C107" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3779626061403807</v>
+        <v>1.327885867503801</v>
       </c>
       <c r="D107" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3779626061403807</v>
+        <v>1.327885867503801</v>
       </c>
       <c r="E107" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3779626061403807</v>
+        <v>1.327885867503801</v>
       </c>
       <c r="F107" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3791818589281968</v>
+        <v>1.32753414215659</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -6297,23 +6293,23 @@
       </c>
       <c r="B108" s="14">
         <f ca="1">B107+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3791818589281968</v>
+        <v>1.32753414215659</v>
       </c>
       <c r="C108" s="14">
         <f t="shared" ca="1" si="4"/>
-        <v>1.3791818589281968</v>
+        <v>1.32753414215659</v>
       </c>
       <c r="D108" s="14">
         <f t="shared" ca="1" si="5"/>
-        <v>1.3791818589281968</v>
+        <v>1.32753414215659</v>
       </c>
       <c r="E108" s="14">
         <f t="shared" ca="1" si="6"/>
-        <v>1.3791818589281968</v>
+        <v>1.32753414215659</v>
       </c>
       <c r="F108" s="14">
         <f t="shared" ca="1" si="7"/>
-        <v>1.3756370488070082</v>
+        <v>1.3267266978144814</v>
       </c>
     </row>
     <row r="109" spans="1:6">
@@ -6322,7 +6318,7 @@
       </c>
       <c r="B109" s="14">
         <f ca="1">B108+'Grid trading simulator'!$B$7*NORMINV(RAND(), 'Grid trading simulator'!$B$9, 'Grid trading simulator'!$B$8)</f>
-        <v>1.3756370488070082</v>
+        <v>1.3267266978144814</v>
       </c>
       <c r="C109" s="14"/>
       <c r="D109" s="14"/>
@@ -6331,6 +6327,7 @@
     </row>
   </sheetData>
   <sheetProtection password="9213" sheet="1" objects="1" scenarios="1" formatCells="0" formatColumns="0" formatRows="0"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
   <headerFooter alignWithMargins="0"/>
@@ -6338,7 +6335,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
   <dimension ref="A1:A3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -6356,7 +6353,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="2" spans="1:1" ht="255">
+    <row r="2" spans="1:1" ht="242.25">
       <c r="A2" s="32" t="s">
         <v>133</v>
       </c>
@@ -6368,6 +6365,7 @@
     </row>
   </sheetData>
   <sheetProtection password="9213" sheet="1" objects="1" scenarios="1"/>
+  <phoneticPr fontId="19" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
